--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.60982512400783</v>
+        <v>20.33410519477785</v>
       </c>
       <c r="C2">
-        <v>23.82907347508396</v>
+        <v>10.14828917694875</v>
       </c>
       <c r="D2">
-        <v>2.793245887061136</v>
+        <v>10.55446442952714</v>
       </c>
       <c r="E2">
-        <v>16.92271940706454</v>
+        <v>7.102596431137377</v>
       </c>
       <c r="F2">
-        <v>40.92264401813077</v>
+        <v>64.11022331462134</v>
       </c>
       <c r="I2">
-        <v>23.35252309938582</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.71547014333718</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.16592038123676</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.136544948181036</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.7682533534023</v>
+        <v>18.92149845787241</v>
       </c>
       <c r="C3">
-        <v>22.07485302152514</v>
+        <v>9.484415991837091</v>
       </c>
       <c r="D3">
-        <v>2.869518846846697</v>
+        <v>10.13674166020293</v>
       </c>
       <c r="E3">
-        <v>15.6554544840197</v>
+        <v>7.004743504960772</v>
       </c>
       <c r="F3">
-        <v>38.4990150968917</v>
+        <v>60.49775136969756</v>
       </c>
       <c r="I3">
-        <v>22.40161281500476</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.762343429442</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.94839619979599</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.921334512999413</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.58326104578425</v>
+        <v>18.10532474208184</v>
       </c>
       <c r="C4">
-        <v>20.94947088770042</v>
+        <v>9.062492504185471</v>
       </c>
       <c r="D4">
-        <v>2.916006630798063</v>
+        <v>9.877665887258321</v>
       </c>
       <c r="E4">
-        <v>14.84488510997454</v>
+        <v>6.94708107871088</v>
       </c>
       <c r="F4">
-        <v>37.00026173782427</v>
+        <v>58.22639253754103</v>
       </c>
       <c r="I4">
-        <v>21.83616515224521</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.15374602396662</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.16879024259637</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.793063622321507</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08637769997384</v>
+        <v>17.76868671277361</v>
       </c>
       <c r="C5">
-        <v>20.47835196412774</v>
+        <v>8.886813936339527</v>
       </c>
       <c r="D5">
-        <v>2.934902224867073</v>
+        <v>9.771430583714553</v>
       </c>
       <c r="E5">
-        <v>14.50609368056311</v>
+        <v>6.924161647596796</v>
       </c>
       <c r="F5">
-        <v>36.38701717785013</v>
+        <v>57.28760270665584</v>
       </c>
       <c r="I5">
-        <v>21.61028517433089</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.89961021900551</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.84278505731499</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.74177217817561</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.0030161530127</v>
+        <v>17.71255068227412</v>
       </c>
       <c r="C6">
-        <v>20.39935677915238</v>
+        <v>8.85741293075924</v>
       </c>
       <c r="D6">
-        <v>2.938037924205815</v>
+        <v>9.753750544694693</v>
       </c>
       <c r="E6">
-        <v>14.44931697540084</v>
+        <v>6.920390007482763</v>
       </c>
       <c r="F6">
-        <v>36.28504703615968</v>
+        <v>57.13093082884809</v>
       </c>
       <c r="I6">
-        <v>21.57305060012708</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.85703425248664</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.78814342584295</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.733314771209894</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.57661698045991</v>
+        <v>18.10080080627935</v>
       </c>
       <c r="C7">
-        <v>20.94316836197837</v>
+        <v>9.060138563039523</v>
       </c>
       <c r="D7">
-        <v>2.916261612765708</v>
+        <v>9.876235830098249</v>
       </c>
       <c r="E7">
-        <v>14.84035077003314</v>
+        <v>6.946769674614675</v>
       </c>
       <c r="F7">
-        <v>36.9920010078889</v>
+        <v>58.21378467417658</v>
       </c>
       <c r="I7">
-        <v>21.83310054290942</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.15034378145481</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.16442758087011</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.792367906642919</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98589474515419</v>
+        <v>19.82602089112555</v>
       </c>
       <c r="C8">
-        <v>23.23400138321476</v>
+        <v>9.92225883346636</v>
       </c>
       <c r="D8">
-        <v>2.819640448549588</v>
+        <v>10.41096097482647</v>
       </c>
       <c r="E8">
-        <v>16.49230440202658</v>
+        <v>7.068335529522426</v>
       </c>
       <c r="F8">
-        <v>40.08923299788123</v>
+        <v>62.87575770729753</v>
       </c>
       <c r="I8">
-        <v>23.02076215240834</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.39152436834443</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.75260709209793</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.061539464032124</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.29745717140511</v>
+        <v>23.37365430008463</v>
       </c>
       <c r="C9">
-        <v>27.36245148889948</v>
+        <v>11.50741640596242</v>
       </c>
       <c r="D9">
-        <v>2.625465680270566</v>
+        <v>11.44047356018083</v>
       </c>
       <c r="E9">
-        <v>19.49038407341415</v>
+        <v>7.327476001084289</v>
       </c>
       <c r="F9">
-        <v>46.0815647316571</v>
+        <v>71.59812210760622</v>
       </c>
       <c r="I9">
-        <v>25.50266796123908</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.65289876295138</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.62586280854464</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.620249015712734</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.24149144140844</v>
+        <v>25.84009166929837</v>
       </c>
       <c r="C10">
-        <v>30.20506473661408</v>
+        <v>12.62150270410624</v>
       </c>
       <c r="D10">
-        <v>2.47670857412314</v>
+        <v>12.18923797063718</v>
       </c>
       <c r="E10">
-        <v>21.57236092417351</v>
+        <v>7.533089303580327</v>
       </c>
       <c r="F10">
-        <v>50.60197386204523</v>
+        <v>77.77328933956133</v>
       </c>
       <c r="I10">
-        <v>27.43502478120328</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>16.23021039801886</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.61110392161549</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.050807731715947</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.53987506836499</v>
+        <v>26.9378560213373</v>
       </c>
       <c r="C11">
-        <v>31.46546372788447</v>
+        <v>13.12129889039792</v>
       </c>
       <c r="D11">
-        <v>2.406817747575276</v>
+        <v>12.52974522672936</v>
       </c>
       <c r="E11">
-        <v>22.5006341462512</v>
+        <v>7.63066012244967</v>
       </c>
       <c r="F11">
-        <v>52.72027089315133</v>
+        <v>80.54242619578724</v>
       </c>
       <c r="I11">
-        <v>28.34357110454048</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.93536716334215</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.4927535139882</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.251696022690272</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.02644069156058</v>
+        <v>27.35072519672398</v>
       </c>
       <c r="C12">
-        <v>31.93892487640819</v>
+        <v>13.30996325646143</v>
       </c>
       <c r="D12">
-        <v>2.379940726508737</v>
+        <v>12.65885204681816</v>
       </c>
       <c r="E12">
-        <v>22.85020216344477</v>
+        <v>7.668264280906943</v>
       </c>
       <c r="F12">
-        <v>53.52232363538254</v>
+        <v>81.586570579384</v>
       </c>
       <c r="I12">
-        <v>28.69256279866566</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>17.20122281933418</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.82411943748084</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.328578406644894</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.92186314908464</v>
+        <v>27.26192035430818</v>
       </c>
       <c r="C13">
-        <v>31.83711071359823</v>
+        <v>13.26935015102291</v>
       </c>
       <c r="D13">
-        <v>2.385749096449604</v>
+        <v>12.63103586220262</v>
       </c>
       <c r="E13">
-        <v>22.77498933062819</v>
+        <v>7.660134982754389</v>
       </c>
       <c r="F13">
-        <v>53.34956392577988</v>
+        <v>81.36186960026114</v>
       </c>
       <c r="I13">
-        <v>28.61716770095962</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>17.14400713562793</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.75285429087897</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.311982609752306</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.58000244431832</v>
+        <v>26.97187548456757</v>
       </c>
       <c r="C14">
-        <v>31.50448663810031</v>
+        <v>13.13682974975665</v>
       </c>
       <c r="D14">
-        <v>2.404615380938777</v>
+        <v>12.54036241874313</v>
       </c>
       <c r="E14">
-        <v>22.52942746937118</v>
+        <v>7.633740194994949</v>
       </c>
       <c r="F14">
-        <v>52.78624840904236</v>
+        <v>80.62840942385658</v>
       </c>
       <c r="I14">
-        <v>28.3721789486657</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.95725882756693</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.52006144089961</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.258004319791034</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.3699636736318</v>
+        <v>26.793867867277</v>
       </c>
       <c r="C15">
-        <v>31.3002758318822</v>
+        <v>13.05559294358275</v>
       </c>
       <c r="D15">
-        <v>2.416114999978261</v>
+        <v>12.484849903388</v>
       </c>
       <c r="E15">
-        <v>22.37878510915037</v>
+        <v>7.617660610533263</v>
       </c>
       <c r="F15">
-        <v>52.4412387575892</v>
+        <v>80.17860655619448</v>
       </c>
       <c r="I15">
-        <v>28.2227848099613</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.84273762838375</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.37716341960221</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.225049762439806</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15587941048086</v>
+        <v>25.76791536190729</v>
       </c>
       <c r="C16">
-        <v>30.12210771511007</v>
+        <v>12.58873205842277</v>
       </c>
       <c r="D16">
-        <v>2.481223978613198</v>
+        <v>12.16699705501957</v>
       </c>
       <c r="E16">
-        <v>21.51137863808392</v>
+        <v>7.526800162549597</v>
       </c>
       <c r="F16">
-        <v>50.46343535908172</v>
+        <v>77.59161636718697</v>
       </c>
       <c r="I16">
-        <v>27.37629807025644</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>16.18392696078898</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.55310237428732</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.037787092402523</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.40111607717839</v>
+        <v>25.13274338486573</v>
       </c>
       <c r="C17">
-        <v>29.39153418994693</v>
+        <v>12.30080026073909</v>
       </c>
       <c r="D17">
-        <v>2.520537543922061</v>
+        <v>11.9720891504</v>
       </c>
       <c r="E17">
-        <v>20.97492424138382</v>
+        <v>7.472143120528979</v>
       </c>
       <c r="F17">
-        <v>49.24825013596482</v>
+        <v>75.99513934883934</v>
       </c>
       <c r="I17">
-        <v>26.86499768188207</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>15.77699457734557</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.04246079803679</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.924247043054218</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.96309531268825</v>
+        <v>24.76508189130231</v>
       </c>
       <c r="C18">
-        <v>28.96818634210309</v>
+        <v>12.13450110331176</v>
       </c>
       <c r="D18">
-        <v>2.542947047411192</v>
+        <v>11.8599594790693</v>
       </c>
       <c r="E18">
-        <v>20.66454440770737</v>
+        <v>7.441080389550605</v>
       </c>
       <c r="F18">
-        <v>48.54817500378629</v>
+        <v>75.07302767480212</v>
       </c>
       <c r="I18">
-        <v>26.5736353360443</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15.54173088313309</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.74669379618271</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.859407792063457</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.81409775172431</v>
+        <v>24.64018059002867</v>
       </c>
       <c r="C19">
-        <v>28.82428437987936</v>
+        <v>12.07806562861363</v>
       </c>
       <c r="D19">
-        <v>2.550502240185986</v>
+        <v>11.82198553291652</v>
       </c>
       <c r="E19">
-        <v>20.55912088581634</v>
+        <v>7.430625354372483</v>
       </c>
       <c r="F19">
-        <v>48.31090888342933</v>
+        <v>74.76012040630191</v>
       </c>
       <c r="I19">
-        <v>26.47543492860017</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>15.46185077403012</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.64618221836052</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.837532211425057</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.48186050069228</v>
+        <v>25.20059510339799</v>
       </c>
       <c r="C20">
-        <v>29.46962425888537</v>
+        <v>12.3315196260255</v>
       </c>
       <c r="D20">
-        <v>2.516374127624883</v>
+        <v>11.99283874908263</v>
       </c>
       <c r="E20">
-        <v>21.03221463871246</v>
+        <v>7.477922192204931</v>
       </c>
       <c r="F20">
-        <v>49.37771658655677</v>
+        <v>76.16547847751571</v>
       </c>
       <c r="I20">
-        <v>26.91914013821741</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15.82043412701191</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.09702868831534</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.936284814868126</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.68054683489598</v>
+        <v>27.05713958420769</v>
       </c>
       <c r="C21">
-        <v>31.60228229385025</v>
+        <v>13.17576673686174</v>
       </c>
       <c r="D21">
-        <v>2.399085864521684</v>
+        <v>12.56698926239908</v>
       </c>
       <c r="E21">
-        <v>22.60160100409514</v>
+        <v>7.641474488820592</v>
       </c>
       <c r="F21">
-        <v>52.95169683535578</v>
+        <v>80.84395360259636</v>
       </c>
       <c r="I21">
-        <v>28.44399718659659</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>17.01213767193373</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.58850083740634</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.273836193158878</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.08824037425126</v>
+        <v>28.25441415647781</v>
       </c>
       <c r="C22">
-        <v>32.97435104211098</v>
+        <v>13.72430277942125</v>
       </c>
       <c r="D22">
-        <v>2.319980218432226</v>
+        <v>12.94330929732273</v>
       </c>
       <c r="E22">
-        <v>23.61640072780269</v>
+        <v>7.752238176030522</v>
       </c>
       <c r="F22">
-        <v>55.2879099076379</v>
+        <v>83.87644907256414</v>
       </c>
       <c r="I22">
-        <v>29.5483429796594</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.78453418504917</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.54907576519755</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.49923529613269</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.33930974414449</v>
+        <v>27.61662285191735</v>
       </c>
       <c r="C23">
-        <v>32.24370233518666</v>
+        <v>13.43167567713388</v>
       </c>
       <c r="D23">
-        <v>2.362459729050079</v>
+        <v>12.74228795291219</v>
       </c>
       <c r="E23">
-        <v>23.07548492982803</v>
+        <v>7.692737586234149</v>
       </c>
       <c r="F23">
-        <v>54.04039531549435</v>
+        <v>82.2597249126694</v>
       </c>
       <c r="I23">
-        <v>28.9193805385832</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>17.37264648340308</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.03747246851886</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.378459147302955</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.4453687652892</v>
+        <v>25.16992715278817</v>
       </c>
       <c r="C24">
-        <v>29.43433017938644</v>
+        <v>12.31763380818057</v>
       </c>
       <c r="D24">
-        <v>2.518257000698708</v>
+        <v>11.98345810035794</v>
       </c>
       <c r="E24">
-        <v>21.00631982594384</v>
+        <v>7.475308356978286</v>
       </c>
       <c r="F24">
-        <v>49.31918942239759</v>
+        <v>76.08848156686717</v>
       </c>
       <c r="I24">
-        <v>26.89465431309452</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>15.80079923995161</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.07236541653165</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.930841184943949</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17261918256511</v>
+        <v>22.44024423141282</v>
       </c>
       <c r="C25">
-        <v>26.28160685516152</v>
+        <v>11.08861258258234</v>
       </c>
       <c r="D25">
-        <v>2.678801450851974</v>
+        <v>11.16369743261893</v>
       </c>
       <c r="E25">
-        <v>18.7026852861971</v>
+        <v>7.254910114397216</v>
       </c>
       <c r="F25">
-        <v>44.46783569047765</v>
+        <v>69.28202795962247</v>
       </c>
       <c r="I25">
-        <v>24.81362177907373</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.05763560196723</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.8723835299637</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.465726517519988</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.33410519477785</v>
+        <v>17.5750977438994</v>
       </c>
       <c r="C2">
-        <v>10.14828917694875</v>
+        <v>6.465512489119661</v>
       </c>
       <c r="D2">
-        <v>10.55446442952714</v>
+        <v>2.112477692443507</v>
       </c>
       <c r="E2">
-        <v>7.102596431137377</v>
+        <v>5.939871509611528</v>
       </c>
       <c r="F2">
-        <v>64.11022331462134</v>
+        <v>42.01736105227039</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.28453832860215</v>
       </c>
       <c r="K2">
-        <v>16.16592038123676</v>
+        <v>14.05170755366508</v>
       </c>
       <c r="L2">
-        <v>7.136544948181036</v>
+        <v>6.33462552967434</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.15452428275624</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>19.15599955564135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.92149845787241</v>
+        <v>16.82567291337873</v>
       </c>
       <c r="C3">
-        <v>9.484415991837091</v>
+        <v>6.027883645182015</v>
       </c>
       <c r="D3">
-        <v>10.13674166020293</v>
+        <v>2.135903955880973</v>
       </c>
       <c r="E3">
-        <v>7.004743504960772</v>
+        <v>5.956057756462964</v>
       </c>
       <c r="F3">
-        <v>60.49775136969756</v>
+        <v>41.40163875163134</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.321218682646998</v>
       </c>
       <c r="K3">
-        <v>14.94839619979599</v>
+        <v>13.48401584495424</v>
       </c>
       <c r="L3">
-        <v>6.921334512999413</v>
+        <v>6.306555824455202</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.92476597414852</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>19.26103878792742</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.10532474208184</v>
+        <v>16.3607430458298</v>
       </c>
       <c r="C4">
-        <v>9.062492504185471</v>
+        <v>5.745396521275731</v>
       </c>
       <c r="D4">
-        <v>9.877665887258321</v>
+        <v>2.149877889020765</v>
       </c>
       <c r="E4">
-        <v>6.94708107871088</v>
+        <v>5.967300204042579</v>
       </c>
       <c r="F4">
-        <v>58.22639253754103</v>
+        <v>41.04365438376877</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.344567369086864</v>
       </c>
       <c r="K4">
-        <v>14.16879024259637</v>
+        <v>13.13313789021283</v>
       </c>
       <c r="L4">
-        <v>6.793063622321507</v>
+        <v>6.291891422392235</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.78844272049115</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>19.33033913871959</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76868671277361</v>
+        <v>16.17033818091119</v>
       </c>
       <c r="C5">
-        <v>8.886813936339527</v>
+        <v>5.626780429662426</v>
       </c>
       <c r="D5">
-        <v>9.771430583714553</v>
+        <v>2.155478882789026</v>
       </c>
       <c r="E5">
-        <v>6.924161647596796</v>
+        <v>5.972206331711629</v>
       </c>
       <c r="F5">
-        <v>57.28760270665584</v>
+        <v>40.9027735642583</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.354293719676045</v>
       </c>
       <c r="K5">
-        <v>13.84278505731499</v>
+        <v>12.98976471016877</v>
       </c>
       <c r="L5">
-        <v>6.74177217817561</v>
+        <v>6.286552578287069</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.73411817110303</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>19.35975970252135</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.71255068227412</v>
+        <v>16.13867293409217</v>
       </c>
       <c r="C6">
-        <v>8.85741293075924</v>
+        <v>5.606871966887716</v>
       </c>
       <c r="D6">
-        <v>9.753750544694693</v>
+        <v>2.156403545173309</v>
       </c>
       <c r="E6">
-        <v>6.920390007482763</v>
+        <v>5.973040515396491</v>
       </c>
       <c r="F6">
-        <v>57.13093082884809</v>
+        <v>40.87968095081727</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.355921655312025</v>
       </c>
       <c r="K6">
-        <v>13.78814342584295</v>
+        <v>12.9659404000119</v>
       </c>
       <c r="L6">
-        <v>6.733314771209894</v>
+        <v>6.285704262783179</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.72517277251248</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>19.36471545602284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.10080080627935</v>
+        <v>16.35817862625909</v>
       </c>
       <c r="C7">
-        <v>9.060138563039523</v>
+        <v>5.74381103905015</v>
       </c>
       <c r="D7">
-        <v>9.876235830098249</v>
+        <v>2.149953792327635</v>
       </c>
       <c r="E7">
-        <v>6.946769674614675</v>
+        <v>5.967365058959482</v>
       </c>
       <c r="F7">
-        <v>58.21378467417658</v>
+        <v>41.04173423426024</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.344697680670511</v>
       </c>
       <c r="K7">
-        <v>14.16442758087011</v>
+        <v>13.13120560573809</v>
       </c>
       <c r="L7">
-        <v>6.792367906642919</v>
+        <v>6.291816854155161</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.7877050633671</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>19.33073117224417</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.82602089112555</v>
+        <v>17.31783348768247</v>
       </c>
       <c r="C8">
-        <v>9.92225883346636</v>
+        <v>6.317456088052996</v>
       </c>
       <c r="D8">
-        <v>10.41096097482647</v>
+        <v>2.120646095461251</v>
       </c>
       <c r="E8">
-        <v>7.068335529522426</v>
+        <v>5.945179898900103</v>
       </c>
       <c r="F8">
-        <v>62.87575770729753</v>
+        <v>41.80086781381424</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.297016374204737</v>
       </c>
       <c r="K8">
-        <v>15.75260709209793</v>
+        <v>13.85655676894834</v>
       </c>
       <c r="L8">
-        <v>7.061539464032124</v>
+        <v>6.324408018962576</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.07433860033645</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>19.19120182115915</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.37365430008463</v>
+        <v>19.15217188987206</v>
       </c>
       <c r="C9">
-        <v>11.50741640596242</v>
+        <v>7.334810497920739</v>
       </c>
       <c r="D9">
-        <v>11.44047356018083</v>
+        <v>2.059455491975915</v>
       </c>
       <c r="E9">
-        <v>7.327476001084289</v>
+        <v>5.912177400983552</v>
       </c>
       <c r="F9">
-        <v>71.59812210760622</v>
+        <v>43.45073497699486</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.209898323311664</v>
       </c>
       <c r="K9">
-        <v>18.62586280854464</v>
+        <v>15.25333489913769</v>
       </c>
       <c r="L9">
-        <v>7.620249015712734</v>
+        <v>6.409130160694899</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.67261590438707</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>18.9571227767913</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84009166929837</v>
+        <v>20.46060262068372</v>
       </c>
       <c r="C10">
-        <v>12.62150270410624</v>
+        <v>8.019467000082075</v>
       </c>
       <c r="D10">
-        <v>12.18923797063718</v>
+        <v>2.011527936885658</v>
       </c>
       <c r="E10">
-        <v>7.533089303580327</v>
+        <v>5.89457095868084</v>
       </c>
       <c r="F10">
-        <v>77.77328933956133</v>
+        <v>44.76397651290306</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.14952490971497</v>
       </c>
       <c r="K10">
-        <v>20.61110392161549</v>
+        <v>16.2560332575016</v>
       </c>
       <c r="L10">
-        <v>8.050807731715947</v>
+        <v>6.484637963875262</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.13235815195656</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>18.81141467832616</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.9378560213373</v>
+        <v>21.04587110126311</v>
       </c>
       <c r="C11">
-        <v>13.12129889039792</v>
+        <v>8.317992042494456</v>
       </c>
       <c r="D11">
-        <v>12.52974522672936</v>
+        <v>1.988907000838452</v>
       </c>
       <c r="E11">
-        <v>7.63066012244967</v>
+        <v>5.88806257954493</v>
       </c>
       <c r="F11">
-        <v>80.54242619578724</v>
+        <v>45.38405342822566</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.122786343381182</v>
       </c>
       <c r="K11">
-        <v>21.4927535139882</v>
+        <v>16.70594689875056</v>
       </c>
       <c r="L11">
-        <v>8.251696022690272</v>
+        <v>6.521995132038895</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.34555514311312</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>18.75138185210395</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35072519672398</v>
+        <v>21.26599200532354</v>
       </c>
       <c r="C12">
-        <v>13.30996325646143</v>
+        <v>8.429239860095855</v>
       </c>
       <c r="D12">
-        <v>12.65885204681816</v>
+        <v>1.980207570809652</v>
       </c>
       <c r="E12">
-        <v>7.668264280906943</v>
+        <v>5.885819402275954</v>
       </c>
       <c r="F12">
-        <v>81.586570579384</v>
+        <v>45.62218933999638</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.112760002679867</v>
       </c>
       <c r="K12">
-        <v>21.82411943748084</v>
+        <v>16.87536297734591</v>
       </c>
       <c r="L12">
-        <v>8.328578406644894</v>
+        <v>6.536584646847024</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.42684864297538</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>18.72960007366657</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.26192035430818</v>
+        <v>21.21865296073114</v>
       </c>
       <c r="C13">
-        <v>13.26935015102291</v>
+        <v>8.405359530072948</v>
       </c>
       <c r="D13">
-        <v>12.63103586220262</v>
+        <v>1.982087345367363</v>
       </c>
       <c r="E13">
-        <v>7.660134982754389</v>
+        <v>5.886292568474623</v>
       </c>
       <c r="F13">
-        <v>81.36186960026114</v>
+        <v>45.57075336518152</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.114915042540232</v>
       </c>
       <c r="K13">
-        <v>21.75285429087897</v>
+        <v>16.83891944680261</v>
       </c>
       <c r="L13">
-        <v>8.311982609752306</v>
+        <v>6.533422648217329</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.40931600648701</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>18.73424795915973</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97187548456757</v>
+        <v>21.06401112046803</v>
       </c>
       <c r="C14">
-        <v>13.13682974975665</v>
+        <v>8.327180108699491</v>
       </c>
       <c r="D14">
-        <v>12.54036241874313</v>
+        <v>1.988194061338489</v>
       </c>
       <c r="E14">
-        <v>7.633740194994949</v>
+        <v>5.887873560675866</v>
       </c>
       <c r="F14">
-        <v>80.62840942385658</v>
+        <v>45.40357792002297</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.121959518921178</v>
       </c>
       <c r="K14">
-        <v>21.52006144089961</v>
+        <v>16.71990429442191</v>
       </c>
       <c r="L14">
-        <v>8.258004319791034</v>
+        <v>6.523186475533932</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.35223208579929</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>18.74957046405064</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.793867867277</v>
+        <v>20.96909046377888</v>
       </c>
       <c r="C15">
-        <v>13.05559294358275</v>
+        <v>8.279060854954301</v>
       </c>
       <c r="D15">
-        <v>12.484849903388</v>
+        <v>1.991916742781817</v>
       </c>
       <c r="E15">
-        <v>7.617660610533263</v>
+        <v>5.888870972992605</v>
       </c>
       <c r="F15">
-        <v>80.17860655619448</v>
+        <v>45.30161351162704</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.126287187183393</v>
       </c>
       <c r="K15">
-        <v>21.37716341960221</v>
+        <v>16.64687811475199</v>
       </c>
       <c r="L15">
-        <v>8.225049762439806</v>
+        <v>6.516974562631608</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.31733894404233</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>18.7590814924791</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.76791536190729</v>
+        <v>20.42214645252222</v>
       </c>
       <c r="C16">
-        <v>12.58873205842277</v>
+        <v>7.999702696299535</v>
       </c>
       <c r="D16">
-        <v>12.16699705501957</v>
+        <v>2.012988490205786</v>
       </c>
       <c r="E16">
-        <v>7.526800162549597</v>
+        <v>5.895026962095938</v>
       </c>
       <c r="F16">
-        <v>77.59161636718697</v>
+        <v>44.7239145909039</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.151286489328856</v>
       </c>
       <c r="K16">
-        <v>20.55310237428732</v>
+        <v>16.22649929668561</v>
       </c>
       <c r="L16">
-        <v>8.037787092402523</v>
+        <v>6.482258009562321</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.11850476641273</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>18.81546810247745</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.13274338486573</v>
+        <v>20.08400131499707</v>
       </c>
       <c r="C17">
-        <v>12.30080026073909</v>
+        <v>7.825056479980806</v>
       </c>
       <c r="D17">
-        <v>11.9720891504</v>
+        <v>2.025694976901273</v>
       </c>
       <c r="E17">
-        <v>7.472143120528979</v>
+        <v>5.899191666149147</v>
       </c>
       <c r="F17">
-        <v>75.99513934883934</v>
+        <v>44.37536505590393</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.166804902958431</v>
       </c>
       <c r="K17">
-        <v>20.04246079803679</v>
+        <v>15.96696524814291</v>
       </c>
       <c r="L17">
-        <v>7.924247043054218</v>
+        <v>6.461738361634815</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.99754741142903</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>18.85169597865731</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.76508189130231</v>
+        <v>19.88857576407265</v>
       </c>
       <c r="C18">
-        <v>12.13450110331176</v>
+        <v>7.723383646055868</v>
       </c>
       <c r="D18">
-        <v>11.8599594790693</v>
+        <v>2.032927394152521</v>
       </c>
       <c r="E18">
-        <v>7.441080389550605</v>
+        <v>5.90172799745307</v>
       </c>
       <c r="F18">
-        <v>75.07302767480212</v>
+        <v>44.17701837253145</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.175799325339855</v>
       </c>
       <c r="K18">
-        <v>19.74669379618271</v>
+        <v>15.81710485269534</v>
       </c>
       <c r="L18">
-        <v>7.859407792063457</v>
+        <v>6.450218495161673</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.92835893238422</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>18.87311815375655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.64018059002867</v>
+        <v>19.82225063581593</v>
       </c>
       <c r="C19">
-        <v>12.07806562861363</v>
+        <v>7.688747477093369</v>
       </c>
       <c r="D19">
-        <v>11.82198553291652</v>
+        <v>2.035363565519658</v>
       </c>
       <c r="E19">
-        <v>7.430625354372483</v>
+        <v>5.902610795174996</v>
       </c>
       <c r="F19">
-        <v>74.76012040630191</v>
+        <v>44.11022563268227</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.178856628415595</v>
       </c>
       <c r="K19">
-        <v>19.64618221836052</v>
+        <v>15.76626683805949</v>
       </c>
       <c r="L19">
-        <v>7.837532211425057</v>
+        <v>6.446366272212413</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.90499948584928</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>18.88047027538234</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.20059510339799</v>
+        <v>20.1200947164932</v>
       </c>
       <c r="C20">
-        <v>12.3315196260255</v>
+        <v>7.843773800837253</v>
       </c>
       <c r="D20">
-        <v>11.99283874908263</v>
+        <v>2.02435032641104</v>
       </c>
       <c r="E20">
-        <v>7.477922192204931</v>
+        <v>5.898733704698619</v>
       </c>
       <c r="F20">
-        <v>76.16547847751571</v>
+        <v>44.41224789799735</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.165145874810309</v>
       </c>
       <c r="K20">
-        <v>20.09702868831534</v>
+        <v>15.99465399004262</v>
       </c>
       <c r="L20">
-        <v>7.936284814868126</v>
+        <v>6.463893401695109</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.01038407741346</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>18.84777856627708</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.05713958420769</v>
+        <v>21.1094745457283</v>
       </c>
       <c r="C21">
-        <v>13.17576673686174</v>
+        <v>8.350191550396946</v>
       </c>
       <c r="D21">
-        <v>12.56698926239908</v>
+        <v>1.986404122519382</v>
       </c>
       <c r="E21">
-        <v>7.641474488820592</v>
+        <v>5.887403128708916</v>
       </c>
       <c r="F21">
-        <v>80.84395360259636</v>
+        <v>45.45259052876365</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.119887744142732</v>
       </c>
       <c r="K21">
-        <v>21.58850083740634</v>
+        <v>16.75488825476722</v>
       </c>
       <c r="L21">
-        <v>8.273836193158878</v>
+        <v>6.526180972574126</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.36898395924086</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>18.74504360610575</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.25441415647781</v>
+        <v>21.74729174610105</v>
       </c>
       <c r="C22">
-        <v>13.72430277942125</v>
+        <v>8.670722835836358</v>
       </c>
       <c r="D22">
-        <v>12.94330929732273</v>
+        <v>1.960818368640537</v>
       </c>
       <c r="E22">
-        <v>7.752238176030522</v>
+        <v>5.881291482879918</v>
       </c>
       <c r="F22">
-        <v>83.87644907256414</v>
+        <v>46.15194500508809</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.090883039367345</v>
       </c>
       <c r="K22">
-        <v>22.54907576519755</v>
+        <v>17.24615980462073</v>
       </c>
       <c r="L22">
-        <v>8.49923529613269</v>
+        <v>6.569478049908682</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.6066104637794</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>18.68347423330313</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.61662285191735</v>
+        <v>21.40769890481074</v>
       </c>
       <c r="C23">
-        <v>13.43167567713388</v>
+        <v>8.500582655317295</v>
       </c>
       <c r="D23">
-        <v>12.74228795291219</v>
+        <v>1.97455141680547</v>
       </c>
       <c r="E23">
-        <v>7.692737586234149</v>
+        <v>5.884433024205198</v>
       </c>
       <c r="F23">
-        <v>82.2597249126694</v>
+        <v>45.77688256997527</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.106312749317492</v>
       </c>
       <c r="K23">
-        <v>22.03747246851886</v>
+        <v>16.98448385366791</v>
       </c>
       <c r="L23">
-        <v>8.378459147302955</v>
+        <v>6.546129051783174</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.47949225852716</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>18.71580605662383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.16992715278817</v>
+        <v>20.10378006483233</v>
       </c>
       <c r="C24">
-        <v>12.31763380818057</v>
+        <v>7.835315649237676</v>
       </c>
       <c r="D24">
-        <v>11.98345810035794</v>
+        <v>2.024958468209809</v>
       </c>
       <c r="E24">
-        <v>7.475308356978286</v>
+        <v>5.898940307225161</v>
       </c>
       <c r="F24">
-        <v>76.08848156686717</v>
+        <v>44.39556681849623</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.165895694654705</v>
       </c>
       <c r="K24">
-        <v>20.07236541653165</v>
+        <v>15.98213793193847</v>
       </c>
       <c r="L24">
-        <v>7.930841184943949</v>
+        <v>6.462918245606214</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.00457952398637</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>18.84954778124733</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44024423141282</v>
+        <v>18.66222094651226</v>
       </c>
       <c r="C25">
-        <v>11.08861258258234</v>
+        <v>7.070833966615041</v>
       </c>
       <c r="D25">
-        <v>11.16369743261893</v>
+        <v>2.076476438132168</v>
       </c>
       <c r="E25">
-        <v>7.254910114397216</v>
+        <v>5.919957857258086</v>
       </c>
       <c r="F25">
-        <v>69.28202795962247</v>
+        <v>42.98685947929196</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.232808414377784</v>
       </c>
       <c r="K25">
-        <v>17.8723835299637</v>
+        <v>14.87912640045023</v>
       </c>
       <c r="L25">
-        <v>7.465726517519988</v>
+        <v>6.383923273668921</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.50709291922234</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>19.01600486498136</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.5750977438994</v>
+        <v>22.4830047972259</v>
       </c>
       <c r="C2">
-        <v>6.465512489119661</v>
+        <v>4.247072341563142</v>
       </c>
       <c r="D2">
-        <v>2.112477692443507</v>
+        <v>3.649310245373473</v>
       </c>
       <c r="E2">
-        <v>5.939871509611528</v>
+        <v>10.6169397089692</v>
       </c>
       <c r="F2">
-        <v>42.01736105227039</v>
+        <v>57.10392951348858</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.28453832860215</v>
+        <v>10.48708288890919</v>
       </c>
       <c r="K2">
-        <v>14.05170755366508</v>
+        <v>18.56863169888286</v>
       </c>
       <c r="L2">
-        <v>6.33462552967434</v>
+        <v>11.17439517568099</v>
       </c>
       <c r="M2">
-        <v>12.15452428275624</v>
+        <v>19.43303458844015</v>
       </c>
       <c r="N2">
-        <v>19.15599955564135</v>
+        <v>27.54712734425629</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.82567291337873</v>
+        <v>22.40308077528776</v>
       </c>
       <c r="C3">
-        <v>6.027883645182015</v>
+        <v>4.108768802822548</v>
       </c>
       <c r="D3">
-        <v>2.135903955880973</v>
+        <v>3.654995034380002</v>
       </c>
       <c r="E3">
-        <v>5.956057756462964</v>
+        <v>10.6323723066171</v>
       </c>
       <c r="F3">
-        <v>41.40163875163134</v>
+        <v>57.08455214805498</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.321218682646998</v>
+        <v>10.50042270420408</v>
       </c>
       <c r="K3">
-        <v>13.48401584495424</v>
+        <v>18.51658840835018</v>
       </c>
       <c r="L3">
-        <v>6.306555824455202</v>
+        <v>11.19272610962122</v>
       </c>
       <c r="M3">
-        <v>11.92476597414852</v>
+        <v>19.44560374019683</v>
       </c>
       <c r="N3">
-        <v>19.26103878792742</v>
+        <v>27.582061090336</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.3607430458298</v>
+        <v>22.35904677078684</v>
       </c>
       <c r="C4">
-        <v>5.745396521275731</v>
+        <v>4.022945984096207</v>
       </c>
       <c r="D4">
-        <v>2.149877889020765</v>
+        <v>3.658852132476555</v>
       </c>
       <c r="E4">
-        <v>5.967300204042579</v>
+        <v>10.64254986910862</v>
       </c>
       <c r="F4">
-        <v>41.04365438376877</v>
+        <v>57.0815042544341</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.344567369086864</v>
+        <v>10.50908855138256</v>
       </c>
       <c r="K4">
-        <v>13.13313789021283</v>
+        <v>18.48870533269229</v>
       </c>
       <c r="L4">
-        <v>6.291891422392235</v>
+        <v>11.20526829870492</v>
       </c>
       <c r="M4">
-        <v>11.78844272049115</v>
+        <v>19.45645224295326</v>
       </c>
       <c r="N4">
-        <v>19.33033913871959</v>
+        <v>27.60535589003678</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.17033818091119</v>
+        <v>22.34238331292932</v>
       </c>
       <c r="C5">
-        <v>5.626780429662426</v>
+        <v>3.987809609830305</v>
       </c>
       <c r="D5">
-        <v>2.155478882789026</v>
+        <v>3.66051637430521</v>
       </c>
       <c r="E5">
-        <v>5.972206331711629</v>
+        <v>10.64687425184993</v>
       </c>
       <c r="F5">
-        <v>40.9027735642583</v>
+        <v>57.0824899618409</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.354293719676045</v>
+        <v>10.51273978651496</v>
       </c>
       <c r="K5">
-        <v>12.98976471016877</v>
+        <v>18.47837483562718</v>
       </c>
       <c r="L5">
-        <v>6.286552578287069</v>
+        <v>11.2107033568828</v>
       </c>
       <c r="M5">
-        <v>11.73411817110303</v>
+        <v>19.4616611869301</v>
       </c>
       <c r="N5">
-        <v>19.35975970252135</v>
+        <v>27.61531298627307</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.13867293409217</v>
+        <v>22.33969407741843</v>
       </c>
       <c r="C6">
-        <v>5.606871966887716</v>
+        <v>3.981967370116277</v>
       </c>
       <c r="D6">
-        <v>2.156403545173309</v>
+        <v>3.660798311230325</v>
       </c>
       <c r="E6">
-        <v>5.973040515396491</v>
+        <v>10.64760301246113</v>
       </c>
       <c r="F6">
-        <v>40.87968095081727</v>
+        <v>57.08278823922335</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.355921655312025</v>
+        <v>10.51335331926402</v>
       </c>
       <c r="K6">
-        <v>12.9659404000119</v>
+        <v>18.47672201892821</v>
       </c>
       <c r="L6">
-        <v>6.285704262783179</v>
+        <v>11.21162542547521</v>
       </c>
       <c r="M6">
-        <v>11.72517277251248</v>
+        <v>19.46257374545498</v>
       </c>
       <c r="N6">
-        <v>19.36471545602284</v>
+        <v>27.61699440304906</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.35817862625909</v>
+        <v>22.35881683916851</v>
       </c>
       <c r="C7">
-        <v>5.74381103905015</v>
+        <v>4.022472693884449</v>
       </c>
       <c r="D7">
-        <v>2.149953792327635</v>
+        <v>3.658874202373935</v>
       </c>
       <c r="E7">
-        <v>5.967365058959482</v>
+        <v>10.64260747220663</v>
       </c>
       <c r="F7">
-        <v>41.04173423426024</v>
+        <v>57.08150852564451</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.344697680670511</v>
+        <v>10.50913730755396</v>
       </c>
       <c r="K7">
-        <v>13.13120560573809</v>
+        <v>18.48856182309478</v>
       </c>
       <c r="L7">
-        <v>6.291816854155161</v>
+        <v>11.20534028535094</v>
       </c>
       <c r="M7">
-        <v>11.7877050633671</v>
+        <v>19.45651930078837</v>
       </c>
       <c r="N7">
-        <v>19.33073117224417</v>
+        <v>27.60548829479879</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.31783348768247</v>
+        <v>22.45440955662114</v>
       </c>
       <c r="C8">
-        <v>6.317456088052996</v>
+        <v>4.199610172204642</v>
       </c>
       <c r="D8">
-        <v>2.120646095461251</v>
+        <v>3.651194422056675</v>
       </c>
       <c r="E8">
-        <v>5.945179898900103</v>
+        <v>10.62211546177332</v>
       </c>
       <c r="F8">
-        <v>41.80086781381424</v>
+        <v>57.0954130850938</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.297016374204737</v>
+        <v>10.49158405283791</v>
       </c>
       <c r="K8">
-        <v>13.85655676894834</v>
+        <v>18.54984733232591</v>
       </c>
       <c r="L8">
-        <v>6.324408018962576</v>
+        <v>11.18044882940854</v>
       </c>
       <c r="M8">
-        <v>12.07433860033645</v>
+        <v>19.43671911858447</v>
       </c>
       <c r="N8">
-        <v>19.19120182115915</v>
+        <v>27.55878965041719</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.15217188987206</v>
+        <v>22.68119387836565</v>
       </c>
       <c r="C9">
-        <v>7.334810497920739</v>
+        <v>4.537202758152089</v>
       </c>
       <c r="D9">
-        <v>2.059455491975915</v>
+        <v>3.639032292060358</v>
       </c>
       <c r="E9">
-        <v>5.912177400983552</v>
+        <v>10.58747990139804</v>
       </c>
       <c r="F9">
-        <v>43.45073497699486</v>
+        <v>57.19276502988237</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.209898323311664</v>
+        <v>10.46091627062973</v>
       </c>
       <c r="K9">
-        <v>15.25333489913769</v>
+        <v>18.70192784117303</v>
       </c>
       <c r="L9">
-        <v>6.409130160694899</v>
+        <v>11.14182986417551</v>
       </c>
       <c r="M9">
-        <v>12.67261590438707</v>
+        <v>19.42269349141494</v>
       </c>
       <c r="N9">
-        <v>18.9571227767913</v>
+        <v>27.48184492712057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.46060262068372</v>
+        <v>22.87080879695531</v>
       </c>
       <c r="C10">
-        <v>8.019467000082075</v>
+        <v>4.776125989529461</v>
       </c>
       <c r="D10">
-        <v>2.011527936885658</v>
+        <v>3.631848833400441</v>
       </c>
       <c r="E10">
-        <v>5.89457095868084</v>
+        <v>10.5653889691543</v>
       </c>
       <c r="F10">
-        <v>44.76397651290306</v>
+        <v>57.30678953642587</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.14952490971497</v>
+        <v>10.44065103820125</v>
       </c>
       <c r="K10">
-        <v>16.2560332575016</v>
+        <v>18.83249690130078</v>
       </c>
       <c r="L10">
-        <v>6.484637963875262</v>
+        <v>11.11964601149184</v>
       </c>
       <c r="M10">
-        <v>13.13235815195656</v>
+        <v>19.42744507283033</v>
       </c>
       <c r="N10">
-        <v>18.81141467832616</v>
+        <v>27.43421913559763</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.04587110126311</v>
+        <v>22.96182624180044</v>
       </c>
       <c r="C11">
-        <v>8.317992042494456</v>
+        <v>4.882272588347418</v>
       </c>
       <c r="D11">
-        <v>1.988907000838452</v>
+        <v>3.628958282839019</v>
       </c>
       <c r="E11">
-        <v>5.88806257954493</v>
+        <v>10.55606218919131</v>
       </c>
       <c r="F11">
-        <v>45.38405342822566</v>
+        <v>57.36782288084314</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.122786343381182</v>
+        <v>10.43191927246381</v>
       </c>
       <c r="K11">
-        <v>16.70594689875056</v>
+        <v>18.89583520365865</v>
       </c>
       <c r="L11">
-        <v>6.521995132038895</v>
+        <v>11.11089250948162</v>
       </c>
       <c r="M11">
-        <v>13.34555514311312</v>
+        <v>19.43285785305987</v>
       </c>
       <c r="N11">
-        <v>18.75138185210395</v>
+        <v>27.4144838215978</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.26599200532354</v>
+        <v>22.99695483580724</v>
       </c>
       <c r="C12">
-        <v>8.429239860095855</v>
+        <v>4.922061232657058</v>
       </c>
       <c r="D12">
-        <v>1.980207570809652</v>
+        <v>3.627917703416377</v>
       </c>
       <c r="E12">
-        <v>5.885819402275954</v>
+        <v>10.55263382508209</v>
       </c>
       <c r="F12">
-        <v>45.62218933999638</v>
+        <v>57.39224456408935</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.112760002679867</v>
+        <v>10.42868244918603</v>
       </c>
       <c r="K12">
-        <v>16.87536297734591</v>
+        <v>18.92037236151016</v>
       </c>
       <c r="L12">
-        <v>6.536584646847024</v>
+        <v>11.10776970953698</v>
       </c>
       <c r="M12">
-        <v>13.42684864297538</v>
+        <v>19.43537307265939</v>
       </c>
       <c r="N12">
-        <v>18.72960007366657</v>
+        <v>27.40728788317977</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21865296073114</v>
+        <v>22.98936017745362</v>
       </c>
       <c r="C13">
-        <v>8.405359530072948</v>
+        <v>4.913510738938378</v>
       </c>
       <c r="D13">
-        <v>1.982087345367363</v>
+        <v>3.628139412502587</v>
       </c>
       <c r="E13">
-        <v>5.886292568474623</v>
+        <v>10.5533675885953</v>
       </c>
       <c r="F13">
-        <v>45.57075336518152</v>
+        <v>57.38692680669439</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.114915042540232</v>
+        <v>10.42937646185358</v>
       </c>
       <c r="K13">
-        <v>16.83891944680261</v>
+        <v>18.91506352125078</v>
       </c>
       <c r="L13">
-        <v>6.533422648217329</v>
+        <v>11.10843373018429</v>
       </c>
       <c r="M13">
-        <v>13.40931600648701</v>
+        <v>19.43481070571061</v>
       </c>
       <c r="N13">
-        <v>18.73424795915973</v>
+        <v>27.40882532185493</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.06401112046803</v>
+        <v>22.96470315144689</v>
       </c>
       <c r="C14">
-        <v>8.327180108699491</v>
+        <v>4.885554397506702</v>
       </c>
       <c r="D14">
-        <v>1.988194061338489</v>
+        <v>3.628871592670559</v>
       </c>
       <c r="E14">
-        <v>5.887873560675866</v>
+        <v>10.55577806395092</v>
       </c>
       <c r="F14">
-        <v>45.40357792002297</v>
+        <v>57.36980586865609</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.121959518921178</v>
+        <v>10.43165158186742</v>
       </c>
       <c r="K14">
-        <v>16.71990429442191</v>
+        <v>18.89784290731211</v>
       </c>
       <c r="L14">
-        <v>6.523186475533932</v>
+        <v>11.11063175029365</v>
       </c>
       <c r="M14">
-        <v>13.35223208579929</v>
+        <v>19.4330554644127</v>
       </c>
       <c r="N14">
-        <v>18.74957046405064</v>
+        <v>27.41388624865391</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.96909046377888</v>
+        <v>22.94968557571043</v>
       </c>
       <c r="C15">
-        <v>8.279060854954301</v>
+        <v>4.868376205847166</v>
       </c>
       <c r="D15">
-        <v>1.991916742781817</v>
+        <v>3.62932710075465</v>
       </c>
       <c r="E15">
-        <v>5.888870972992605</v>
+        <v>10.55726801442366</v>
       </c>
       <c r="F15">
-        <v>45.30161351162704</v>
+        <v>57.35948910535774</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.126287187183393</v>
+        <v>10.43305422696356</v>
       </c>
       <c r="K15">
-        <v>16.64687811475199</v>
+        <v>18.88736626669309</v>
       </c>
       <c r="L15">
-        <v>6.516974562631608</v>
+        <v>11.11200308648654</v>
       </c>
       <c r="M15">
-        <v>13.31733894404233</v>
+        <v>19.43204088869735</v>
       </c>
       <c r="N15">
-        <v>18.7590814924791</v>
+        <v>27.41702233415004</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.42214645252222</v>
+        <v>22.86495450822506</v>
       </c>
       <c r="C16">
-        <v>7.999702696299535</v>
+        <v>4.769134289412756</v>
       </c>
       <c r="D16">
-        <v>2.012988490205786</v>
+        <v>3.632045308399666</v>
       </c>
       <c r="E16">
-        <v>5.895026962095938</v>
+        <v>10.56601299960221</v>
       </c>
       <c r="F16">
-        <v>44.7239145909039</v>
+        <v>57.30298459094089</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.151286489328856</v>
+        <v>10.44123145155421</v>
       </c>
       <c r="K16">
-        <v>16.22649929668561</v>
+        <v>18.82843569306784</v>
       </c>
       <c r="L16">
-        <v>6.482258009562321</v>
+        <v>11.12024496045672</v>
       </c>
       <c r="M16">
-        <v>13.11850476641273</v>
+        <v>19.42715659232726</v>
       </c>
       <c r="N16">
-        <v>18.81546810247745</v>
+        <v>27.43554770891713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.08400131499707</v>
+        <v>22.81417855363783</v>
       </c>
       <c r="C17">
-        <v>7.825056479980806</v>
+        <v>4.707570923492191</v>
       </c>
       <c r="D17">
-        <v>2.025694976901273</v>
+        <v>3.633809291760197</v>
       </c>
       <c r="E17">
-        <v>5.899191666149147</v>
+        <v>10.57156252143248</v>
       </c>
       <c r="F17">
-        <v>44.37536505590393</v>
+        <v>57.27066243961594</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.166804902958431</v>
+        <v>10.44637241410685</v>
       </c>
       <c r="K17">
-        <v>15.96696524814291</v>
+        <v>18.79328324019813</v>
       </c>
       <c r="L17">
-        <v>6.461738361634815</v>
+        <v>11.12564347576761</v>
       </c>
       <c r="M17">
-        <v>12.99754741142903</v>
+        <v>19.424991607861</v>
       </c>
       <c r="N17">
-        <v>18.85169597865731</v>
+        <v>27.44740663311784</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.88857576407265</v>
+        <v>22.78542307548182</v>
       </c>
       <c r="C18">
-        <v>7.723383646055868</v>
+        <v>4.671924332782512</v>
       </c>
       <c r="D18">
-        <v>2.032927394152521</v>
+        <v>3.634859410171592</v>
       </c>
       <c r="E18">
-        <v>5.90172799745307</v>
+        <v>10.57482248864645</v>
       </c>
       <c r="F18">
-        <v>44.17701837253145</v>
+        <v>57.25293460083138</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.175799325339855</v>
+        <v>10.44937521666559</v>
       </c>
       <c r="K18">
-        <v>15.81710485269534</v>
+        <v>18.77343642405814</v>
       </c>
       <c r="L18">
-        <v>6.450218495161673</v>
+        <v>11.12887452997958</v>
       </c>
       <c r="M18">
-        <v>12.92835893238422</v>
+        <v>19.42405252586683</v>
       </c>
       <c r="N18">
-        <v>18.87311815375655</v>
+        <v>27.45440923060276</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.82225063581593</v>
+        <v>22.77576482921124</v>
       </c>
       <c r="C19">
-        <v>7.688747477093369</v>
+        <v>4.659815645948461</v>
       </c>
       <c r="D19">
-        <v>2.035363565519658</v>
+        <v>3.6352210703779</v>
       </c>
       <c r="E19">
-        <v>5.902610795174996</v>
+        <v>10.57593795408448</v>
       </c>
       <c r="F19">
-        <v>44.11022563268227</v>
+        <v>57.24708070728821</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.178856628415595</v>
+        <v>10.45039979982703</v>
       </c>
       <c r="K19">
-        <v>15.76626683805949</v>
+        <v>18.76678094259547</v>
       </c>
       <c r="L19">
-        <v>6.446366272212413</v>
+        <v>11.12999015839165</v>
       </c>
       <c r="M19">
-        <v>12.90499948584928</v>
+        <v>19.42378720936782</v>
       </c>
       <c r="N19">
-        <v>18.88047027538234</v>
+        <v>27.45681139347446</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.1200947164932</v>
+        <v>22.81953737630215</v>
       </c>
       <c r="C20">
-        <v>7.843773800837253</v>
+        <v>4.714149288824101</v>
       </c>
       <c r="D20">
-        <v>2.02435032641104</v>
+        <v>3.633617838079347</v>
       </c>
       <c r="E20">
-        <v>5.898733704698619</v>
+        <v>10.57096472758646</v>
       </c>
       <c r="F20">
-        <v>44.41224789799735</v>
+        <v>57.27401392398306</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.165145874810309</v>
+        <v>10.44582040618904</v>
       </c>
       <c r="K20">
-        <v>15.99465399004262</v>
+        <v>18.79698688617799</v>
       </c>
       <c r="L20">
-        <v>6.463893401695109</v>
+        <v>11.12505576025344</v>
       </c>
       <c r="M20">
-        <v>13.01038407741346</v>
+        <v>19.42519040153694</v>
       </c>
       <c r="N20">
-        <v>18.84777856627708</v>
+        <v>27.44612543030611</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.1094745457283</v>
+        <v>22.97192772746076</v>
       </c>
       <c r="C21">
-        <v>8.350191550396946</v>
+        <v>4.893777199948713</v>
       </c>
       <c r="D21">
-        <v>1.986404122519382</v>
+        <v>3.628655069695177</v>
       </c>
       <c r="E21">
-        <v>5.887403128708916</v>
+        <v>10.5550672436009</v>
       </c>
       <c r="F21">
-        <v>45.45259052876365</v>
+        <v>57.37479922724948</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.119887744142732</v>
+        <v>10.43098143469494</v>
       </c>
       <c r="K21">
-        <v>16.75488825476722</v>
+        <v>18.90288614922862</v>
       </c>
       <c r="L21">
-        <v>6.526180972574126</v>
+        <v>11.10998093239639</v>
       </c>
       <c r="M21">
-        <v>13.36898395924086</v>
+        <v>19.43355840455376</v>
       </c>
       <c r="N21">
-        <v>18.74504360610575</v>
+        <v>27.41239220425165</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.74729174610105</v>
+        <v>23.07537268550487</v>
       </c>
       <c r="C22">
-        <v>8.670722835836358</v>
+        <v>5.008787377315198</v>
       </c>
       <c r="D22">
-        <v>1.960818368640537</v>
+        <v>3.625726312293506</v>
       </c>
       <c r="E22">
-        <v>5.881291482879918</v>
+        <v>10.54528032095776</v>
       </c>
       <c r="F22">
-        <v>46.15194500508809</v>
+        <v>57.44829766151437</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.090883039367345</v>
+        <v>10.42168946679879</v>
       </c>
       <c r="K22">
-        <v>17.24615980462073</v>
+        <v>18.97530944014141</v>
       </c>
       <c r="L22">
-        <v>6.569478049908682</v>
+        <v>11.10124733684462</v>
       </c>
       <c r="M22">
-        <v>13.6066104637794</v>
+        <v>19.44173966430456</v>
       </c>
       <c r="N22">
-        <v>18.68347423330313</v>
+        <v>27.39196241697586</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.40769890481074</v>
+        <v>23.01981763317807</v>
       </c>
       <c r="C23">
-        <v>8.500582655317295</v>
+        <v>4.947635225136522</v>
       </c>
       <c r="D23">
-        <v>1.97455141680547</v>
+        <v>3.627260728343033</v>
       </c>
       <c r="E23">
-        <v>5.884433024205198</v>
+        <v>10.55044874545306</v>
       </c>
       <c r="F23">
-        <v>45.77688256997527</v>
+        <v>57.40837496243769</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.106312749317492</v>
+        <v>10.42661170707408</v>
       </c>
       <c r="K23">
-        <v>16.98448385366791</v>
+        <v>18.93636688190577</v>
       </c>
       <c r="L23">
-        <v>6.546129051783174</v>
+        <v>11.10580641516314</v>
       </c>
       <c r="M23">
-        <v>13.47949225852716</v>
+        <v>19.43712572472401</v>
       </c>
       <c r="N23">
-        <v>18.71580605662383</v>
+        <v>27.40271827844914</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.10378006483233</v>
+        <v>22.81711329183532</v>
       </c>
       <c r="C24">
-        <v>7.835315649237676</v>
+        <v>4.711175994694749</v>
       </c>
       <c r="D24">
-        <v>2.024958468209809</v>
+        <v>3.63370428221567</v>
       </c>
       <c r="E24">
-        <v>5.898940307225161</v>
+        <v>10.57123477376143</v>
       </c>
       <c r="F24">
-        <v>44.39556681849623</v>
+        <v>57.27249605511788</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.165895694654705</v>
+        <v>10.44606982193322</v>
       </c>
       <c r="K24">
-        <v>15.98213793193847</v>
+        <v>18.79531133662417</v>
       </c>
       <c r="L24">
-        <v>6.462918245606214</v>
+        <v>11.12532106963704</v>
       </c>
       <c r="M24">
-        <v>13.00457952398637</v>
+        <v>19.42509957483503</v>
       </c>
       <c r="N24">
-        <v>18.84954778124733</v>
+        <v>27.44670408653266</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.66222094651226</v>
+        <v>22.61572791106314</v>
       </c>
       <c r="C25">
-        <v>7.070833966615041</v>
+        <v>4.447265197198652</v>
       </c>
       <c r="D25">
-        <v>2.076476438132168</v>
+        <v>3.642013742490575</v>
       </c>
       <c r="E25">
-        <v>5.919957857258086</v>
+        <v>10.59625847187844</v>
       </c>
       <c r="F25">
-        <v>42.98685947929196</v>
+        <v>57.15894498524472</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.232808414377784</v>
+        <v>10.46881312225413</v>
       </c>
       <c r="K25">
-        <v>14.87912640045023</v>
+        <v>18.65743003132829</v>
       </c>
       <c r="L25">
-        <v>6.383923273668921</v>
+        <v>11.15118853850928</v>
       </c>
       <c r="M25">
-        <v>12.50709291922234</v>
+        <v>19.42383821501753</v>
       </c>
       <c r="N25">
-        <v>19.01600486498136</v>
+        <v>27.50109561036129</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.4830047972259</v>
+        <v>17.57509774389943</v>
       </c>
       <c r="C2">
-        <v>4.247072341563142</v>
+        <v>6.465512489119604</v>
       </c>
       <c r="D2">
-        <v>3.649310245373473</v>
+        <v>2.112477692443507</v>
       </c>
       <c r="E2">
-        <v>10.6169397089692</v>
+        <v>5.939871509611526</v>
       </c>
       <c r="F2">
-        <v>57.10392951348858</v>
+        <v>42.01736105227041</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.48708288890919</v>
+        <v>6.284538328602151</v>
       </c>
       <c r="K2">
-        <v>18.56863169888286</v>
+        <v>14.05170755366512</v>
       </c>
       <c r="L2">
-        <v>11.17439517568099</v>
+        <v>6.334625529674369</v>
       </c>
       <c r="M2">
-        <v>19.43303458844015</v>
+        <v>12.15452428275628</v>
       </c>
       <c r="N2">
-        <v>27.54712734425629</v>
+        <v>19.15599955564132</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.40308077528776</v>
+        <v>16.82567291337871</v>
       </c>
       <c r="C3">
-        <v>4.108768802822548</v>
+        <v>6.027883645181921</v>
       </c>
       <c r="D3">
-        <v>3.654995034380002</v>
+        <v>2.135903955880972</v>
       </c>
       <c r="E3">
-        <v>10.6323723066171</v>
+        <v>5.956057756462963</v>
       </c>
       <c r="F3">
-        <v>57.08455214805498</v>
+        <v>41.4016387516313</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.50042270420408</v>
+        <v>6.321218682646998</v>
       </c>
       <c r="K3">
-        <v>18.51658840835018</v>
+        <v>13.48401584495422</v>
       </c>
       <c r="L3">
-        <v>11.19272610962122</v>
+        <v>6.306555824455231</v>
       </c>
       <c r="M3">
-        <v>19.44560374019683</v>
+        <v>11.92476597414852</v>
       </c>
       <c r="N3">
-        <v>27.582061090336</v>
+        <v>19.26103878792742</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35904677078684</v>
+        <v>16.36074304582977</v>
       </c>
       <c r="C4">
-        <v>4.022945984096207</v>
+        <v>5.745396521275739</v>
       </c>
       <c r="D4">
-        <v>3.658852132476555</v>
+        <v>2.149877889020566</v>
       </c>
       <c r="E4">
-        <v>10.64254986910862</v>
+        <v>5.96730020404258</v>
       </c>
       <c r="F4">
-        <v>57.0815042544341</v>
+        <v>41.0436543837688</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.50908855138256</v>
+        <v>6.344567369086731</v>
       </c>
       <c r="K4">
-        <v>18.48870533269229</v>
+        <v>13.13313789021282</v>
       </c>
       <c r="L4">
-        <v>11.20526829870492</v>
+        <v>6.29189142239218</v>
       </c>
       <c r="M4">
-        <v>19.45645224295326</v>
+        <v>11.78844272049115</v>
       </c>
       <c r="N4">
-        <v>27.60535589003678</v>
+        <v>19.33033913871958</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.34238331292932</v>
+        <v>16.17033818091114</v>
       </c>
       <c r="C5">
-        <v>3.987809609830305</v>
+        <v>5.626780429662302</v>
       </c>
       <c r="D5">
-        <v>3.66051637430521</v>
+        <v>2.155478882789295</v>
       </c>
       <c r="E5">
-        <v>10.64687425184993</v>
+        <v>5.972206331711631</v>
       </c>
       <c r="F5">
-        <v>57.0824899618409</v>
+        <v>40.90277356425811</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.51273978651496</v>
+        <v>6.354293719676174</v>
       </c>
       <c r="K5">
-        <v>18.47837483562718</v>
+        <v>12.98976471016871</v>
       </c>
       <c r="L5">
-        <v>11.2107033568828</v>
+        <v>6.286552578287065</v>
       </c>
       <c r="M5">
-        <v>19.4616611869301</v>
+        <v>11.73411817110299</v>
       </c>
       <c r="N5">
-        <v>27.61531298627307</v>
+        <v>19.35975970252133</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.33969407741843</v>
+        <v>16.1386729340921</v>
       </c>
       <c r="C6">
-        <v>3.981967370116277</v>
+        <v>5.606871966887771</v>
       </c>
       <c r="D6">
-        <v>3.660798311230325</v>
+        <v>2.156403545173174</v>
       </c>
       <c r="E6">
-        <v>10.64760301246113</v>
+        <v>5.973040515396554</v>
       </c>
       <c r="F6">
-        <v>57.08278823922335</v>
+        <v>40.87968095081687</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.51335331926402</v>
+        <v>6.355921655311993</v>
       </c>
       <c r="K6">
-        <v>18.47672201892821</v>
+        <v>12.96594040001183</v>
       </c>
       <c r="L6">
-        <v>11.21162542547521</v>
+        <v>6.285704262783176</v>
       </c>
       <c r="M6">
-        <v>19.46257374545498</v>
+        <v>11.72517277251244</v>
       </c>
       <c r="N6">
-        <v>27.61699440304906</v>
+        <v>19.36471545602259</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.35881683916851</v>
+        <v>16.35817862625903</v>
       </c>
       <c r="C7">
-        <v>4.022472693884449</v>
+        <v>5.743811039050102</v>
       </c>
       <c r="D7">
-        <v>3.658874202373935</v>
+        <v>2.149953792327632</v>
       </c>
       <c r="E7">
-        <v>10.64260747220663</v>
+        <v>5.967365058959546</v>
       </c>
       <c r="F7">
-        <v>57.08150852564451</v>
+        <v>41.04173423426014</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.50913730755396</v>
+        <v>6.344697680670541</v>
       </c>
       <c r="K7">
-        <v>18.48856182309478</v>
+        <v>13.13120560573806</v>
       </c>
       <c r="L7">
-        <v>11.20534028535094</v>
+        <v>6.291816854155215</v>
       </c>
       <c r="M7">
-        <v>19.45651930078837</v>
+        <v>11.7877050633671</v>
       </c>
       <c r="N7">
-        <v>27.60548829479879</v>
+        <v>19.33073117224414</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.45440955662114</v>
+        <v>17.31783348768247</v>
       </c>
       <c r="C8">
-        <v>4.199610172204642</v>
+        <v>6.317456088052972</v>
       </c>
       <c r="D8">
-        <v>3.651194422056675</v>
+        <v>2.120646095461316</v>
       </c>
       <c r="E8">
-        <v>10.62211546177332</v>
+        <v>5.945179898900034</v>
       </c>
       <c r="F8">
-        <v>57.0954130850938</v>
+        <v>41.80086781381434</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.49158405283791</v>
+        <v>6.297016374204769</v>
       </c>
       <c r="K8">
-        <v>18.54984733232591</v>
+        <v>13.85655676894837</v>
       </c>
       <c r="L8">
-        <v>11.18044882940854</v>
+        <v>6.32440801896257</v>
       </c>
       <c r="M8">
-        <v>19.43671911858447</v>
+        <v>12.07433860033647</v>
       </c>
       <c r="N8">
-        <v>27.55878965041719</v>
+        <v>19.1912018211592</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.68119387836565</v>
+        <v>19.15217188987203</v>
       </c>
       <c r="C9">
-        <v>4.537202758152089</v>
+        <v>7.334810497920885</v>
       </c>
       <c r="D9">
-        <v>3.639032292060358</v>
+        <v>2.059455491975648</v>
       </c>
       <c r="E9">
-        <v>10.58747990139804</v>
+        <v>5.912177400983738</v>
       </c>
       <c r="F9">
-        <v>57.19276502988237</v>
+        <v>43.45073497699475</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.46091627062973</v>
+        <v>6.209898323311728</v>
       </c>
       <c r="K9">
-        <v>18.70192784117303</v>
+        <v>15.25333489913765</v>
       </c>
       <c r="L9">
-        <v>11.14182986417551</v>
+        <v>6.409130160694998</v>
       </c>
       <c r="M9">
-        <v>19.42269349141494</v>
+        <v>12.67261590438707</v>
       </c>
       <c r="N9">
-        <v>27.48184492712057</v>
+        <v>18.95712277679122</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.87080879695531</v>
+        <v>20.46060262068368</v>
       </c>
       <c r="C10">
-        <v>4.776125989529461</v>
+        <v>8.019467000081992</v>
       </c>
       <c r="D10">
-        <v>3.631848833400441</v>
+        <v>2.011527936885862</v>
       </c>
       <c r="E10">
-        <v>10.5653889691543</v>
+        <v>5.894570958680727</v>
       </c>
       <c r="F10">
-        <v>57.30678953642587</v>
+        <v>44.76397651290296</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.44065103820125</v>
+        <v>6.149524909714869</v>
       </c>
       <c r="K10">
-        <v>18.83249690130078</v>
+        <v>16.25603325750157</v>
       </c>
       <c r="L10">
-        <v>11.11964601149184</v>
+        <v>6.484637963875241</v>
       </c>
       <c r="M10">
-        <v>19.42744507283033</v>
+        <v>13.13235815195652</v>
       </c>
       <c r="N10">
-        <v>27.43421913559763</v>
+        <v>18.81141467832614</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.96182624180044</v>
+        <v>21.04587110126311</v>
       </c>
       <c r="C11">
-        <v>4.882272588347418</v>
+        <v>8.31799204249428</v>
       </c>
       <c r="D11">
-        <v>3.628958282839019</v>
+        <v>1.988907000838521</v>
       </c>
       <c r="E11">
-        <v>10.55606218919131</v>
+        <v>5.888062579544872</v>
       </c>
       <c r="F11">
-        <v>57.36782288084314</v>
+        <v>45.38405342822567</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43191927246381</v>
+        <v>6.122786343381187</v>
       </c>
       <c r="K11">
-        <v>18.89583520365865</v>
+        <v>16.70594689875055</v>
       </c>
       <c r="L11">
-        <v>11.11089250948162</v>
+        <v>6.521995132038937</v>
       </c>
       <c r="M11">
-        <v>19.43285785305987</v>
+        <v>13.34555514311312</v>
       </c>
       <c r="N11">
-        <v>27.4144838215978</v>
+        <v>18.751381852104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99695483580724</v>
+        <v>21.26599200532351</v>
       </c>
       <c r="C12">
-        <v>4.922061232657058</v>
+        <v>8.429239860095867</v>
       </c>
       <c r="D12">
-        <v>3.627917703416377</v>
+        <v>1.980207570809448</v>
       </c>
       <c r="E12">
-        <v>10.55263382508209</v>
+        <v>5.885819402276072</v>
       </c>
       <c r="F12">
-        <v>57.39224456408935</v>
+        <v>45.62218933999623</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.42868244918603</v>
+        <v>6.112760002679902</v>
       </c>
       <c r="K12">
-        <v>18.92037236151016</v>
+        <v>16.87536297734589</v>
       </c>
       <c r="L12">
-        <v>11.10776970953698</v>
+        <v>6.536584646847096</v>
       </c>
       <c r="M12">
-        <v>19.43537307265939</v>
+        <v>13.42684864297536</v>
       </c>
       <c r="N12">
-        <v>27.40728788317977</v>
+        <v>18.72960007366652</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.98936017745362</v>
+        <v>21.21865296073114</v>
       </c>
       <c r="C13">
-        <v>4.913510738938378</v>
+        <v>8.405359530073083</v>
       </c>
       <c r="D13">
-        <v>3.628139412502587</v>
+        <v>1.982087345367361</v>
       </c>
       <c r="E13">
-        <v>10.5533675885953</v>
+        <v>5.886292568474682</v>
       </c>
       <c r="F13">
-        <v>57.38692680669439</v>
+        <v>45.57075336518155</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.42937646185358</v>
+        <v>6.114915042540265</v>
       </c>
       <c r="K13">
-        <v>18.91506352125078</v>
+        <v>16.83891944680259</v>
       </c>
       <c r="L13">
-        <v>11.10843373018429</v>
+        <v>6.533422648217316</v>
       </c>
       <c r="M13">
-        <v>19.43481070571061</v>
+        <v>13.40931600648701</v>
       </c>
       <c r="N13">
-        <v>27.40882532185493</v>
+        <v>18.73424795915976</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.96470315144689</v>
+        <v>21.06401112046805</v>
       </c>
       <c r="C14">
-        <v>4.885554397506702</v>
+        <v>8.327180108699407</v>
       </c>
       <c r="D14">
-        <v>3.628871592670559</v>
+        <v>1.988194061338621</v>
       </c>
       <c r="E14">
-        <v>10.55577806395092</v>
+        <v>5.887873560675873</v>
       </c>
       <c r="F14">
-        <v>57.36980586865609</v>
+        <v>45.40357792002288</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43165158186742</v>
+        <v>6.121959518921178</v>
       </c>
       <c r="K14">
-        <v>18.89784290731211</v>
+        <v>16.71990429442193</v>
       </c>
       <c r="L14">
-        <v>11.11063175029365</v>
+        <v>6.523186475533955</v>
       </c>
       <c r="M14">
-        <v>19.4330554644127</v>
+        <v>13.3522320857993</v>
       </c>
       <c r="N14">
-        <v>27.41388624865391</v>
+        <v>18.74957046405055</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94968557571043</v>
+        <v>20.96909046377884</v>
       </c>
       <c r="C15">
-        <v>4.868376205847166</v>
+        <v>8.279060854954261</v>
       </c>
       <c r="D15">
-        <v>3.62932710075465</v>
+        <v>1.99191674278195</v>
       </c>
       <c r="E15">
-        <v>10.55726801442366</v>
+        <v>5.888870972992599</v>
       </c>
       <c r="F15">
-        <v>57.35948910535774</v>
+        <v>45.30161351162693</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.43305422696356</v>
+        <v>6.126287187183422</v>
       </c>
       <c r="K15">
-        <v>18.88736626669309</v>
+        <v>16.64687811475198</v>
       </c>
       <c r="L15">
-        <v>11.11200308648654</v>
+        <v>6.51697456263163</v>
       </c>
       <c r="M15">
-        <v>19.43204088869735</v>
+        <v>13.31733894404231</v>
       </c>
       <c r="N15">
-        <v>27.41702233415004</v>
+        <v>18.75908149247906</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.86495450822506</v>
+        <v>20.42214645252221</v>
       </c>
       <c r="C16">
-        <v>4.769134289412756</v>
+        <v>7.999702696299468</v>
       </c>
       <c r="D16">
-        <v>3.632045308399666</v>
+        <v>2.012988490205922</v>
       </c>
       <c r="E16">
-        <v>10.56601299960221</v>
+        <v>5.89502696209593</v>
       </c>
       <c r="F16">
-        <v>57.30298459094089</v>
+        <v>44.72391459090382</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.44123145155421</v>
+        <v>6.151286489328943</v>
       </c>
       <c r="K16">
-        <v>18.82843569306784</v>
+        <v>16.22649929668561</v>
       </c>
       <c r="L16">
-        <v>11.12024496045672</v>
+        <v>6.482258009562337</v>
       </c>
       <c r="M16">
-        <v>19.42715659232726</v>
+        <v>13.11850476641273</v>
       </c>
       <c r="N16">
-        <v>27.43554770891713</v>
+        <v>18.81546810247744</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.81417855363783</v>
+        <v>20.08400131499709</v>
       </c>
       <c r="C17">
-        <v>4.707570923492191</v>
+        <v>7.825056479980887</v>
       </c>
       <c r="D17">
-        <v>3.633809291760197</v>
+        <v>2.025694976901204</v>
       </c>
       <c r="E17">
-        <v>10.57156252143248</v>
+        <v>5.899191666149202</v>
       </c>
       <c r="F17">
-        <v>57.27066243961594</v>
+        <v>44.37536505590404</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.44637241410685</v>
+        <v>6.166804902958495</v>
       </c>
       <c r="K17">
-        <v>18.79328324019813</v>
+        <v>15.96696524814292</v>
       </c>
       <c r="L17">
-        <v>11.12564347576761</v>
+        <v>6.461738361634839</v>
       </c>
       <c r="M17">
-        <v>19.424991607861</v>
+        <v>12.99754741142905</v>
       </c>
       <c r="N17">
-        <v>27.44740663311784</v>
+        <v>18.85169597865742</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.78542307548182</v>
+        <v>19.88857576407262</v>
       </c>
       <c r="C18">
-        <v>4.671924332782512</v>
+        <v>7.723383646055747</v>
       </c>
       <c r="D18">
-        <v>3.634859410171592</v>
+        <v>2.032927394152523</v>
       </c>
       <c r="E18">
-        <v>10.57482248864645</v>
+        <v>5.901727997453134</v>
       </c>
       <c r="F18">
-        <v>57.25293460083138</v>
+        <v>44.17701837253144</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.44937521666559</v>
+        <v>6.175799325339887</v>
       </c>
       <c r="K18">
-        <v>18.77343642405814</v>
+        <v>15.81710485269534</v>
       </c>
       <c r="L18">
-        <v>11.12887452997958</v>
+        <v>6.450218495161727</v>
       </c>
       <c r="M18">
-        <v>19.42405252586683</v>
+        <v>12.92835893238424</v>
       </c>
       <c r="N18">
-        <v>27.45440923060276</v>
+        <v>18.87311815375656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77576482921124</v>
+        <v>19.82225063581588</v>
       </c>
       <c r="C19">
-        <v>4.659815645948461</v>
+        <v>7.688747477093449</v>
       </c>
       <c r="D19">
-        <v>3.6352210703779</v>
+        <v>2.035363565519858</v>
       </c>
       <c r="E19">
-        <v>10.57593795408448</v>
+        <v>5.902610795175183</v>
       </c>
       <c r="F19">
-        <v>57.24708070728821</v>
+        <v>44.11022563268212</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.45039979982703</v>
+        <v>6.178856628415752</v>
       </c>
       <c r="K19">
-        <v>18.76678094259547</v>
+        <v>15.76626683805947</v>
       </c>
       <c r="L19">
-        <v>11.12999015839165</v>
+        <v>6.446366272212514</v>
       </c>
       <c r="M19">
-        <v>19.42378720936782</v>
+        <v>12.90499948584928</v>
       </c>
       <c r="N19">
-        <v>27.45681139347446</v>
+        <v>18.88047027538234</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.81953737630215</v>
+        <v>20.12009471649318</v>
       </c>
       <c r="C20">
-        <v>4.714149288824101</v>
+        <v>7.843773800837253</v>
       </c>
       <c r="D20">
-        <v>3.633617838079347</v>
+        <v>2.024350326411172</v>
       </c>
       <c r="E20">
-        <v>10.57096472758646</v>
+        <v>5.89873370469868</v>
       </c>
       <c r="F20">
-        <v>57.27401392398306</v>
+        <v>44.41224789799731</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.44582040618904</v>
+        <v>6.165145874810443</v>
       </c>
       <c r="K20">
-        <v>18.79698688617799</v>
+        <v>15.9946539900426</v>
       </c>
       <c r="L20">
-        <v>11.12505576025344</v>
+        <v>6.463893401695056</v>
       </c>
       <c r="M20">
-        <v>19.42519040153694</v>
+        <v>13.01038407741346</v>
       </c>
       <c r="N20">
-        <v>27.44612543030611</v>
+        <v>18.84777856627711</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.97192772746076</v>
+        <v>21.10947454572833</v>
       </c>
       <c r="C21">
-        <v>4.893777199948713</v>
+        <v>8.350191550396945</v>
       </c>
       <c r="D21">
-        <v>3.628655069695177</v>
+        <v>1.986404122519519</v>
       </c>
       <c r="E21">
-        <v>10.5550672436009</v>
+        <v>5.887403128709035</v>
       </c>
       <c r="F21">
-        <v>57.37479922724948</v>
+        <v>45.45259052876388</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43098143469494</v>
+        <v>6.119887744142888</v>
       </c>
       <c r="K21">
-        <v>18.90288614922862</v>
+        <v>16.75488825476724</v>
       </c>
       <c r="L21">
-        <v>11.10998093239639</v>
+        <v>6.526180972574217</v>
       </c>
       <c r="M21">
-        <v>19.43355840455376</v>
+        <v>13.36898395924094</v>
       </c>
       <c r="N21">
-        <v>27.41239220425165</v>
+        <v>18.74504360610591</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.07537268550487</v>
+        <v>21.74729174610106</v>
       </c>
       <c r="C22">
-        <v>5.008787377315198</v>
+        <v>8.670722835836317</v>
       </c>
       <c r="D22">
-        <v>3.625726312293506</v>
+        <v>1.960818368640671</v>
       </c>
       <c r="E22">
-        <v>10.54528032095776</v>
+        <v>5.881291482879851</v>
       </c>
       <c r="F22">
-        <v>57.44829766151437</v>
+        <v>46.15194500508814</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.42168946679879</v>
+        <v>6.090883039367434</v>
       </c>
       <c r="K22">
-        <v>18.97530944014141</v>
+        <v>17.24615980462075</v>
       </c>
       <c r="L22">
-        <v>11.10124733684462</v>
+        <v>6.569478049908678</v>
       </c>
       <c r="M22">
-        <v>19.44173966430456</v>
+        <v>13.6066104637794</v>
       </c>
       <c r="N22">
-        <v>27.39196241697586</v>
+        <v>18.68347423330317</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.01981763317807</v>
+        <v>21.40769890481074</v>
       </c>
       <c r="C23">
-        <v>4.947635225136522</v>
+        <v>8.500582655317281</v>
       </c>
       <c r="D23">
-        <v>3.627260728343033</v>
+        <v>1.974551416805536</v>
       </c>
       <c r="E23">
-        <v>10.55044874545306</v>
+        <v>5.884433024205077</v>
       </c>
       <c r="F23">
-        <v>57.40837496243769</v>
+        <v>45.77688256997521</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.42661170707408</v>
+        <v>6.106312749317429</v>
       </c>
       <c r="K23">
-        <v>18.93636688190577</v>
+        <v>16.98448385366791</v>
       </c>
       <c r="L23">
-        <v>11.10580641516314</v>
+        <v>6.54612905178318</v>
       </c>
       <c r="M23">
-        <v>19.43712572472401</v>
+        <v>13.47949225852714</v>
       </c>
       <c r="N23">
-        <v>27.40271827844914</v>
+        <v>18.7158060566238</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.81711329183532</v>
+        <v>20.10378006483235</v>
       </c>
       <c r="C24">
-        <v>4.711175994694749</v>
+        <v>7.835315649237875</v>
       </c>
       <c r="D24">
-        <v>3.63370428221567</v>
+        <v>2.024958468209475</v>
       </c>
       <c r="E24">
-        <v>10.57123477376143</v>
+        <v>5.898940307225279</v>
       </c>
       <c r="F24">
-        <v>57.27249605511788</v>
+        <v>44.39556681849626</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.44606982193322</v>
+        <v>6.16589569465464</v>
       </c>
       <c r="K24">
-        <v>18.79531133662417</v>
+        <v>15.98213793193846</v>
       </c>
       <c r="L24">
-        <v>11.12532106963704</v>
+        <v>6.462918245606201</v>
       </c>
       <c r="M24">
-        <v>19.42509957483503</v>
+        <v>13.00457952398639</v>
       </c>
       <c r="N24">
-        <v>27.44670408653266</v>
+        <v>18.84954778124731</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.61572791106314</v>
+        <v>18.66222094651227</v>
       </c>
       <c r="C25">
-        <v>4.447265197198652</v>
+        <v>7.070833966614802</v>
       </c>
       <c r="D25">
-        <v>3.642013742490575</v>
+        <v>2.076476438132234</v>
       </c>
       <c r="E25">
-        <v>10.59625847187844</v>
+        <v>5.919957857258024</v>
       </c>
       <c r="F25">
-        <v>57.15894498524472</v>
+        <v>42.98685947929199</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.46881312225413</v>
+        <v>6.23280841437778</v>
       </c>
       <c r="K25">
-        <v>18.65743003132829</v>
+        <v>14.87912640045026</v>
       </c>
       <c r="L25">
-        <v>11.15118853850928</v>
+        <v>6.383923273668968</v>
       </c>
       <c r="M25">
-        <v>19.42383821501753</v>
+        <v>12.50709291922235</v>
       </c>
       <c r="N25">
-        <v>27.50109561036129</v>
+        <v>19.01600486498133</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.57509774389943</v>
+        <v>13.18282770128899</v>
       </c>
       <c r="C2">
-        <v>6.465512489119604</v>
+        <v>7.450247934376568</v>
       </c>
       <c r="D2">
-        <v>2.112477692443507</v>
+        <v>6.647506003864915</v>
       </c>
       <c r="E2">
-        <v>5.939871509611526</v>
+        <v>6.346778172491936</v>
       </c>
       <c r="F2">
-        <v>42.01736105227041</v>
+        <v>40.97199319442012</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>3.398579826195953</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.382132969201584</v>
       </c>
       <c r="J2">
-        <v>6.284538328602151</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>14.05170755366512</v>
+        <v>30.68132182993905</v>
       </c>
       <c r="L2">
-        <v>6.334625529674369</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.15452428275628</v>
+        <v>11.46224645639187</v>
       </c>
       <c r="N2">
-        <v>19.15599955564132</v>
+        <v>7.123022987506644</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.82567291337871</v>
+        <v>12.36743320614099</v>
       </c>
       <c r="C3">
-        <v>6.027883645181921</v>
+        <v>6.917335050633058</v>
       </c>
       <c r="D3">
-        <v>2.135903955880972</v>
+        <v>6.564120437103305</v>
       </c>
       <c r="E3">
-        <v>5.956057756462963</v>
+        <v>6.018741483189519</v>
       </c>
       <c r="F3">
-        <v>41.4016387516313</v>
+        <v>39.30044951728672</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.669020308743708</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.621949403729994</v>
       </c>
       <c r="J3">
-        <v>6.321218682646998</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>13.48401584495422</v>
+        <v>29.66315056252662</v>
       </c>
       <c r="L3">
-        <v>6.306555824455231</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.92476597414852</v>
+        <v>10.71259989817974</v>
       </c>
       <c r="N3">
-        <v>19.26103878792742</v>
+        <v>6.790082578375661</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.36074304582977</v>
+        <v>11.84084749672303</v>
       </c>
       <c r="C4">
-        <v>5.745396521275739</v>
+        <v>6.576700021333003</v>
       </c>
       <c r="D4">
-        <v>2.149877889020566</v>
+        <v>6.50923435048062</v>
       </c>
       <c r="E4">
-        <v>5.96730020404258</v>
+        <v>5.808200731132287</v>
       </c>
       <c r="F4">
-        <v>41.0436543837688</v>
+        <v>38.23424505802478</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.840583309391862</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.774511078721139</v>
       </c>
       <c r="J4">
-        <v>6.344567369086731</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.13313789021282</v>
+        <v>29.01375042315327</v>
       </c>
       <c r="L4">
-        <v>6.29189142239218</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.78844272049115</v>
+        <v>10.22672005972922</v>
       </c>
       <c r="N4">
-        <v>19.33033913871958</v>
+        <v>6.577536253193976</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.17033818091114</v>
+        <v>11.61852136815911</v>
       </c>
       <c r="C5">
-        <v>5.626780429662302</v>
+        <v>6.440589370267158</v>
       </c>
       <c r="D5">
-        <v>2.155478882789295</v>
+        <v>6.481953511206711</v>
       </c>
       <c r="E5">
-        <v>5.972206331711631</v>
+        <v>5.717935645582378</v>
       </c>
       <c r="F5">
-        <v>40.90277356425811</v>
+        <v>37.75579224158703</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.912530340017566</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.840620300470494</v>
       </c>
       <c r="J5">
-        <v>6.354293719676174</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>12.98976471016871</v>
+        <v>28.71611231782814</v>
       </c>
       <c r="L5">
-        <v>6.286552578287065</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.73411817110299</v>
+        <v>10.02330350206731</v>
       </c>
       <c r="N5">
-        <v>19.35975970252133</v>
+        <v>6.489152590121265</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1386729340921</v>
+        <v>11.57962092726722</v>
       </c>
       <c r="C6">
-        <v>5.606871966887771</v>
+        <v>6.425263942344691</v>
       </c>
       <c r="D6">
-        <v>2.156403545173174</v>
+        <v>6.472505284839198</v>
       </c>
       <c r="E6">
-        <v>5.973040515396554</v>
+        <v>5.700145734540142</v>
       </c>
       <c r="F6">
-        <v>40.87968095081687</v>
+        <v>37.63371337674649</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.925317410600614</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.854946040541631</v>
       </c>
       <c r="J6">
-        <v>6.355921655311993</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>12.96594040001183</v>
+        <v>28.63313105617357</v>
       </c>
       <c r="L6">
-        <v>6.285704262783176</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.72517277251244</v>
+        <v>9.990415092357201</v>
       </c>
       <c r="N6">
-        <v>19.36471545602259</v>
+        <v>6.474621528863578</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.35817862625903</v>
+        <v>11.83357608823543</v>
       </c>
       <c r="C7">
-        <v>5.743811039050102</v>
+        <v>6.594747071455593</v>
       </c>
       <c r="D7">
-        <v>2.149953792327632</v>
+        <v>6.495656860722781</v>
       </c>
       <c r="E7">
-        <v>5.967365058959546</v>
+        <v>5.799840590868405</v>
       </c>
       <c r="F7">
-        <v>41.04173423426014</v>
+        <v>38.11455299646801</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.843586566988868</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.784090163718713</v>
       </c>
       <c r="J7">
-        <v>6.344697680670541</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.13120560573806</v>
+        <v>28.92005187196712</v>
       </c>
       <c r="L7">
-        <v>6.291816854155215</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.7877050633671</v>
+        <v>10.2274031585</v>
       </c>
       <c r="N7">
-        <v>19.33073117224414</v>
+        <v>6.5770621250187</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.31783348768247</v>
+        <v>12.90169819738233</v>
       </c>
       <c r="C8">
-        <v>6.317456088052972</v>
+        <v>7.293210742530233</v>
       </c>
       <c r="D8">
-        <v>2.120646095461316</v>
+        <v>6.602424397098805</v>
       </c>
       <c r="E8">
-        <v>5.945179898900034</v>
+        <v>6.226632280625148</v>
       </c>
       <c r="F8">
-        <v>41.80086781381434</v>
+        <v>40.26161824859267</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.493310856324798</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.474868536918726</v>
       </c>
       <c r="J8">
-        <v>6.297016374204769</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>13.85655676894837</v>
+        <v>30.22142031491304</v>
       </c>
       <c r="L8">
-        <v>6.32440801896257</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.07433860033647</v>
+        <v>11.21316358804622</v>
       </c>
       <c r="N8">
-        <v>19.1912018211592</v>
+        <v>7.010844215230001</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.15217188987203</v>
+        <v>14.81802274088981</v>
       </c>
       <c r="C9">
-        <v>7.334810497920885</v>
+        <v>8.527393490776731</v>
       </c>
       <c r="D9">
-        <v>2.059455491975648</v>
+        <v>6.805282059387687</v>
       </c>
       <c r="E9">
-        <v>5.912177400983738</v>
+        <v>7.003079380696475</v>
       </c>
       <c r="F9">
-        <v>43.45073497699475</v>
+        <v>44.32767770724289</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.845249711554266</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.895023669385337</v>
       </c>
       <c r="J9">
-        <v>6.209898323311728</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>15.25333489913765</v>
+        <v>32.72297132304062</v>
       </c>
       <c r="L9">
-        <v>6.409130160694998</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.67261590438707</v>
+        <v>12.93931208699232</v>
       </c>
       <c r="N9">
-        <v>18.95712277679122</v>
+        <v>7.793842115177162</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.46060262068368</v>
+        <v>16.14306080069858</v>
       </c>
       <c r="C10">
-        <v>8.019467000081992</v>
+        <v>9.419013363472713</v>
       </c>
       <c r="D10">
-        <v>2.011527936885862</v>
+        <v>6.871933582388587</v>
       </c>
       <c r="E10">
-        <v>5.894570958680727</v>
+        <v>7.370790046764751</v>
       </c>
       <c r="F10">
-        <v>44.76397651290296</v>
+        <v>46.58646837058615</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.428284114863197</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.509157822985398</v>
       </c>
       <c r="J10">
-        <v>6.149524909714869</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>16.25603325750157</v>
+        <v>34.02149597902795</v>
       </c>
       <c r="L10">
-        <v>6.484637963875241</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.13235815195652</v>
+        <v>14.09250103887384</v>
       </c>
       <c r="N10">
-        <v>18.81141467832614</v>
+        <v>8.18717822554458</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.04587110126311</v>
+        <v>16.59178085738814</v>
       </c>
       <c r="C11">
-        <v>8.31799204249428</v>
+        <v>10.16238049587714</v>
       </c>
       <c r="D11">
-        <v>1.988907000838521</v>
+        <v>6.453832496860429</v>
       </c>
       <c r="E11">
-        <v>5.888062579544872</v>
+        <v>6.325102128373364</v>
       </c>
       <c r="F11">
-        <v>45.38405342822567</v>
+        <v>43.48831964820838</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.233473859322699</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.447346125850249</v>
       </c>
       <c r="J11">
-        <v>6.122786343381187</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.70594689875055</v>
+        <v>31.34417508997055</v>
       </c>
       <c r="L11">
-        <v>6.521995132038937</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.34555514311312</v>
+        <v>14.63422706822085</v>
       </c>
       <c r="N11">
-        <v>18.751381852104</v>
+        <v>7.183234451211912</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.26599200532351</v>
+        <v>16.70928082174196</v>
       </c>
       <c r="C12">
-        <v>8.429239860095867</v>
+        <v>10.59279981957258</v>
       </c>
       <c r="D12">
-        <v>1.980207570809448</v>
+        <v>6.211144783398637</v>
       </c>
       <c r="E12">
-        <v>5.885819402276072</v>
+        <v>5.633717788124994</v>
       </c>
       <c r="F12">
-        <v>45.62218933999623</v>
+        <v>40.53190212444981</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.493026579699431</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.4507114071147</v>
       </c>
       <c r="J12">
-        <v>6.112760002679902</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.87536297734589</v>
+        <v>28.95050643977372</v>
       </c>
       <c r="L12">
-        <v>6.536584646847096</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.42684864297536</v>
+        <v>14.85680629107386</v>
       </c>
       <c r="N12">
-        <v>18.72960007366652</v>
+        <v>6.287884760471783</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21865296073114</v>
+        <v>16.57709686157449</v>
       </c>
       <c r="C13">
-        <v>8.405359530073083</v>
+        <v>10.84503167296127</v>
       </c>
       <c r="D13">
-        <v>1.982087345367361</v>
+        <v>6.078237849480312</v>
       </c>
       <c r="E13">
-        <v>5.886292568474682</v>
+        <v>5.241983406132362</v>
       </c>
       <c r="F13">
-        <v>45.57075336518155</v>
+        <v>37.29365602330062</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.861192045442968</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.51921171875268</v>
       </c>
       <c r="J13">
-        <v>6.114915042540265</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>16.83891944680259</v>
+        <v>26.48218172801135</v>
       </c>
       <c r="L13">
-        <v>6.533422648217316</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.40931600648701</v>
+        <v>14.85852280042084</v>
       </c>
       <c r="N13">
-        <v>18.73424795915976</v>
+        <v>5.425517923555724</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.06401112046805</v>
+        <v>16.36909119148746</v>
       </c>
       <c r="C14">
-        <v>8.327180108699407</v>
+        <v>10.95125074792242</v>
       </c>
       <c r="D14">
-        <v>1.988194061338621</v>
+        <v>6.052254809459994</v>
       </c>
       <c r="E14">
-        <v>5.887873560675873</v>
+        <v>5.190873906598178</v>
       </c>
       <c r="F14">
-        <v>45.40357792002288</v>
+        <v>34.84898082168514</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.849309885725939</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.598572338463973</v>
       </c>
       <c r="J14">
-        <v>6.121959518921178</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.71990429442193</v>
+        <v>24.70435252106801</v>
       </c>
       <c r="L14">
-        <v>6.523186475533955</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.3522320857993</v>
+        <v>14.76151174868846</v>
       </c>
       <c r="N14">
-        <v>18.74957046405055</v>
+        <v>4.859843248356022</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.96909046377884</v>
+        <v>16.26234457783737</v>
       </c>
       <c r="C15">
-        <v>8.279060854954261</v>
+        <v>10.94538989339554</v>
       </c>
       <c r="D15">
-        <v>1.99191674278195</v>
+        <v>6.054583126418018</v>
       </c>
       <c r="E15">
-        <v>5.888870972992599</v>
+        <v>5.200231699410087</v>
       </c>
       <c r="F15">
-        <v>45.30161351162693</v>
+        <v>34.15487802756964</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.083739614208059</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.636963015394323</v>
       </c>
       <c r="J15">
-        <v>6.126287187183422</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.64687811475198</v>
+        <v>24.22638161795408</v>
       </c>
       <c r="L15">
-        <v>6.51697456263163</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.31733894404231</v>
+        <v>14.69097652410452</v>
       </c>
       <c r="N15">
-        <v>18.75908149247906</v>
+        <v>4.725803859593134</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.42214645252221</v>
+        <v>15.73744461541993</v>
       </c>
       <c r="C16">
-        <v>7.999702696299468</v>
+        <v>10.56669417640018</v>
       </c>
       <c r="D16">
-        <v>2.012988490205922</v>
+        <v>6.044724020487694</v>
       </c>
       <c r="E16">
-        <v>5.89502696209593</v>
+        <v>5.075266206517774</v>
       </c>
       <c r="F16">
-        <v>44.72391459090382</v>
+        <v>33.62742918841696</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.926595700115393</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.792458041251157</v>
       </c>
       <c r="J16">
-        <v>6.151286489328943</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>16.22649929668561</v>
+        <v>24.04543112182451</v>
       </c>
       <c r="L16">
-        <v>6.482258009562337</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.11850476641273</v>
+        <v>14.22401618759173</v>
       </c>
       <c r="N16">
-        <v>18.81546810247744</v>
+        <v>4.690570535339799</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.08400131499709</v>
+        <v>15.44140213174674</v>
       </c>
       <c r="C17">
-        <v>7.825056479980887</v>
+        <v>10.20871834938846</v>
       </c>
       <c r="D17">
-        <v>2.025694976901204</v>
+        <v>6.039335778865099</v>
       </c>
       <c r="E17">
-        <v>5.899191666149202</v>
+        <v>4.959883421011002</v>
       </c>
       <c r="F17">
-        <v>44.37536505590404</v>
+        <v>34.55717816895091</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.259790295001309</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.87090699207481</v>
       </c>
       <c r="J17">
-        <v>6.166804902958495</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.96696524814292</v>
+        <v>24.85594504097557</v>
       </c>
       <c r="L17">
-        <v>6.461738361634839</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.99754741142905</v>
+        <v>13.91139823593773</v>
       </c>
       <c r="N17">
-        <v>18.85169597865742</v>
+        <v>4.957831103257189</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.88857576407262</v>
+        <v>15.32098833606501</v>
       </c>
       <c r="C18">
-        <v>7.723383646055747</v>
+        <v>9.819499879524098</v>
       </c>
       <c r="D18">
-        <v>2.032927394152523</v>
+        <v>6.101241593460014</v>
       </c>
       <c r="E18">
-        <v>5.901727997453134</v>
+        <v>5.075591355032514</v>
       </c>
       <c r="F18">
-        <v>44.17701837253144</v>
+        <v>36.94285578999251</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.121705101257544</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.878074236752326</v>
       </c>
       <c r="J18">
-        <v>6.175799325339887</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.81710485269534</v>
+        <v>26.71590121392775</v>
       </c>
       <c r="L18">
-        <v>6.450218495161727</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.92835893238424</v>
+        <v>13.70143530745462</v>
       </c>
       <c r="N18">
-        <v>18.87311815375656</v>
+        <v>5.578284296496521</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.82225063581588</v>
+        <v>15.34637953453922</v>
       </c>
       <c r="C19">
-        <v>7.688747477093449</v>
+        <v>9.474682572582553</v>
       </c>
       <c r="D19">
-        <v>2.035363565519858</v>
+        <v>6.294748997774898</v>
       </c>
       <c r="E19">
-        <v>5.902610795175183</v>
+        <v>5.671058591932471</v>
       </c>
       <c r="F19">
-        <v>44.11022563268212</v>
+        <v>40.1445989941529</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.8256096641623</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.838574296364777</v>
       </c>
       <c r="J19">
-        <v>6.178856628415752</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.76626683805947</v>
+        <v>29.19160758938553</v>
       </c>
       <c r="L19">
-        <v>6.446366272212514</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.90499948584928</v>
+        <v>13.60074765281324</v>
       </c>
       <c r="N19">
-        <v>18.88047027538234</v>
+        <v>6.493328437585019</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.12009471649318</v>
+        <v>15.79138138696188</v>
       </c>
       <c r="C20">
-        <v>7.843773800837253</v>
+        <v>9.23687188756832</v>
       </c>
       <c r="D20">
-        <v>2.024350326411172</v>
+        <v>6.815838283157995</v>
       </c>
       <c r="E20">
-        <v>5.89873370469868</v>
+        <v>7.250314971972815</v>
       </c>
       <c r="F20">
-        <v>44.41224789799731</v>
+        <v>45.68926237470924</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.541987854551653</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.639005497523327</v>
       </c>
       <c r="J20">
-        <v>6.165145874810443</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.9946539900426</v>
+        <v>33.43008206984513</v>
       </c>
       <c r="L20">
-        <v>6.463893401695056</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.01038407741346</v>
+        <v>13.80577684650544</v>
       </c>
       <c r="N20">
-        <v>18.84777856627711</v>
+        <v>8.081364540873569</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.10947454572833</v>
+        <v>16.78489725143109</v>
       </c>
       <c r="C21">
-        <v>8.350191550396945</v>
+        <v>9.83037459240558</v>
       </c>
       <c r="D21">
-        <v>1.986404122519519</v>
+        <v>6.959406044530716</v>
       </c>
       <c r="E21">
-        <v>5.887403128709035</v>
+        <v>7.767455415740734</v>
       </c>
       <c r="F21">
-        <v>45.45259052876388</v>
+        <v>48.1393385822106</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.175577558064055</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.327236556361501</v>
       </c>
       <c r="J21">
-        <v>6.119887744142888</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.75488825476724</v>
+        <v>35.01048403032581</v>
       </c>
       <c r="L21">
-        <v>6.526180972574217</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.36898395924094</v>
+        <v>14.64430266857128</v>
       </c>
       <c r="N21">
-        <v>18.74504360610591</v>
+        <v>8.586432345717121</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.74729174610106</v>
+        <v>17.40521252288143</v>
       </c>
       <c r="C22">
-        <v>8.670722835836317</v>
+        <v>10.21137919613036</v>
       </c>
       <c r="D22">
-        <v>1.960818368640671</v>
+        <v>7.035811912762685</v>
       </c>
       <c r="E22">
-        <v>5.881291482879851</v>
+        <v>8.024214856104878</v>
       </c>
       <c r="F22">
-        <v>46.15194500508814</v>
+        <v>49.57429629788223</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.954049533815039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.120495214501342</v>
       </c>
       <c r="J22">
-        <v>6.090883039367434</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>17.24615980462075</v>
+        <v>35.92293169623842</v>
       </c>
       <c r="L22">
-        <v>6.569478049908678</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.6066104637794</v>
+        <v>15.17068186266622</v>
       </c>
       <c r="N22">
-        <v>18.68347423330317</v>
+        <v>8.835653597828628</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.40769890481074</v>
+        <v>17.08138900825704</v>
       </c>
       <c r="C23">
-        <v>8.500582655317281</v>
+        <v>9.992927708287956</v>
       </c>
       <c r="D23">
-        <v>1.974551416805536</v>
+        <v>7.009381444711567</v>
       </c>
       <c r="E23">
-        <v>5.884433024205077</v>
+        <v>7.894503275450628</v>
       </c>
       <c r="F23">
-        <v>45.77688256997521</v>
+        <v>48.91918670539192</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.069836384236316</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.218570942852177</v>
       </c>
       <c r="J23">
-        <v>6.106312749317429</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.98448385366791</v>
+        <v>35.52631978736689</v>
       </c>
       <c r="L23">
-        <v>6.54612905178318</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>13.47949225852714</v>
+        <v>14.88896851058115</v>
       </c>
       <c r="N23">
-        <v>18.7158060566238</v>
+        <v>8.702708497324346</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.10378006483235</v>
+        <v>15.79331390100864</v>
       </c>
       <c r="C24">
-        <v>7.835315649237875</v>
+        <v>9.169598583813141</v>
       </c>
       <c r="D24">
-        <v>2.024958468209475</v>
+        <v>6.880915911014482</v>
       </c>
       <c r="E24">
-        <v>5.898940307225279</v>
+        <v>7.378122082556017</v>
       </c>
       <c r="F24">
-        <v>44.39556681849626</v>
+        <v>46.18856716511189</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.518842855756516</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.617097865746012</v>
       </c>
       <c r="J24">
-        <v>6.16589569465464</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.98213793193846</v>
+        <v>33.83676213433614</v>
       </c>
       <c r="L24">
-        <v>6.462918245606201</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.00457952398639</v>
+        <v>13.78368479480431</v>
       </c>
       <c r="N24">
-        <v>18.84954778124731</v>
+        <v>8.184070321348427</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.66222094651227</v>
+        <v>14.29855020016935</v>
       </c>
       <c r="C25">
-        <v>7.070833966614802</v>
+        <v>8.233415067485147</v>
       </c>
       <c r="D25">
-        <v>2.076476438132234</v>
+        <v>6.731030687664188</v>
       </c>
       <c r="E25">
-        <v>5.919957857258024</v>
+        <v>6.789406395174878</v>
       </c>
       <c r="F25">
-        <v>42.98685947929199</v>
+        <v>43.08384428293139</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.019666651775979</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.06358072468557</v>
       </c>
       <c r="J25">
-        <v>6.23280841437778</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>14.87912640045026</v>
+        <v>31.92206127369548</v>
       </c>
       <c r="L25">
-        <v>6.383923273668968</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.50709291922235</v>
+        <v>12.49865065005916</v>
       </c>
       <c r="N25">
-        <v>19.01600486498133</v>
+        <v>7.59053237838997</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.18282770128899</v>
+        <v>12.94844596708283</v>
       </c>
       <c r="C2">
-        <v>7.450247934376568</v>
+        <v>8.343909461621234</v>
       </c>
       <c r="D2">
-        <v>6.647506003864915</v>
+        <v>5.853545676979762</v>
       </c>
       <c r="E2">
-        <v>6.346778172491936</v>
+        <v>6.093251542482003</v>
       </c>
       <c r="F2">
-        <v>40.97199319442012</v>
+        <v>34.39702294654638</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.398579826195953</v>
+        <v>3.14672622496033</v>
       </c>
       <c r="I2">
-        <v>4.382132969201584</v>
+        <v>4.081325345478431</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>30.68132182993905</v>
+        <v>25.26521637637788</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19.60594739570247</v>
       </c>
       <c r="M2">
-        <v>11.46224645639187</v>
+        <v>17.99920627471245</v>
       </c>
       <c r="N2">
-        <v>7.123022987506644</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.7617698081806</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.351392022237814</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36743320614099</v>
+        <v>12.09414434273852</v>
       </c>
       <c r="C3">
-        <v>6.917335050633058</v>
+        <v>7.713820937275495</v>
       </c>
       <c r="D3">
-        <v>6.564120437103305</v>
+        <v>5.825798616103999</v>
       </c>
       <c r="E3">
-        <v>6.018741483189519</v>
+        <v>5.810039255900214</v>
       </c>
       <c r="F3">
-        <v>39.30044951728672</v>
+        <v>33.35253420412428</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.669020308743708</v>
+        <v>3.390620460940422</v>
       </c>
       <c r="I3">
-        <v>4.621949403729994</v>
+        <v>4.289131885206386</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>29.66315056252662</v>
+        <v>24.76536504570615</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>19.36511059220912</v>
       </c>
       <c r="M3">
-        <v>10.71259989817974</v>
+        <v>17.5068834263319</v>
       </c>
       <c r="N3">
-        <v>6.790082578375661</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.00004840920711</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.026266858930311</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.84084749672303</v>
+        <v>11.53759722164496</v>
       </c>
       <c r="C4">
-        <v>6.576700021333003</v>
+        <v>7.309233681086513</v>
       </c>
       <c r="D4">
-        <v>6.50923435048062</v>
+        <v>5.806674797183915</v>
       </c>
       <c r="E4">
-        <v>5.808200731132287</v>
+        <v>5.628499402122134</v>
       </c>
       <c r="F4">
-        <v>38.23424505802478</v>
+        <v>32.6902163475845</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.840583309391862</v>
+        <v>3.545540063874607</v>
       </c>
       <c r="I4">
-        <v>4.774511078721139</v>
+        <v>4.421754468323994</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>29.01375042315327</v>
+        <v>24.44662489606295</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>19.20301404213399</v>
       </c>
       <c r="M4">
-        <v>10.22672005972922</v>
+        <v>17.20977513581467</v>
       </c>
       <c r="N4">
-        <v>6.577536253193976</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.50605766324959</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.81913311448062</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.61852136815911</v>
+        <v>11.31157160812323</v>
       </c>
       <c r="C5">
-        <v>6.440589370267158</v>
+        <v>7.145397219187298</v>
       </c>
       <c r="D5">
-        <v>6.481953511206711</v>
+        <v>5.79679189639244</v>
       </c>
       <c r="E5">
-        <v>5.717935645582378</v>
+        <v>5.550910904759141</v>
       </c>
       <c r="F5">
-        <v>37.75579224158703</v>
+        <v>32.38842188241836</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.912530340017566</v>
+        <v>3.610521134125359</v>
       </c>
       <c r="I5">
-        <v>4.840620300470494</v>
+        <v>4.479956849840536</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>28.71611231782814</v>
+        <v>24.29357536460758</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>19.11663283424084</v>
       </c>
       <c r="M5">
-        <v>10.02330350206731</v>
+        <v>17.07640406199906</v>
       </c>
       <c r="N5">
-        <v>6.489152590121265</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.29898018242743</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.733051451381778</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.57962092726722</v>
+        <v>11.27289611857314</v>
       </c>
       <c r="C6">
-        <v>6.425263942344691</v>
+        <v>7.124679359944211</v>
       </c>
       <c r="D6">
-        <v>6.472505284839198</v>
+        <v>5.793227061169522</v>
       </c>
       <c r="E6">
-        <v>5.700145734540142</v>
+        <v>5.535842639895951</v>
       </c>
       <c r="F6">
-        <v>37.63371337674649</v>
+        <v>32.30517502914745</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.925317410600614</v>
+        <v>3.622033995246752</v>
       </c>
       <c r="I6">
-        <v>4.854946040541631</v>
+        <v>4.493363423209686</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>28.63313105617357</v>
+        <v>24.24322236681715</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>19.08163871629862</v>
       </c>
       <c r="M6">
-        <v>9.990415092357201</v>
+        <v>17.03737576200132</v>
       </c>
       <c r="N6">
-        <v>6.474621528863578</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.26523686688978</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.718829106883752</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.83357608823543</v>
+        <v>11.52995554499287</v>
       </c>
       <c r="C7">
-        <v>6.594747071455593</v>
+        <v>7.324991997073549</v>
       </c>
       <c r="D7">
-        <v>6.495656860722781</v>
+        <v>5.801500579705168</v>
       </c>
       <c r="E7">
-        <v>5.799840590868405</v>
+        <v>5.621906982790045</v>
       </c>
       <c r="F7">
-        <v>38.11455299646801</v>
+        <v>32.59766026616634</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.843586566988868</v>
+        <v>3.548141183059834</v>
       </c>
       <c r="I7">
-        <v>4.784090163718713</v>
+        <v>4.432259722601184</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>28.92005187196712</v>
+        <v>24.37762156382764</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>19.14711935077694</v>
       </c>
       <c r="M7">
-        <v>10.2274031585</v>
+        <v>17.16149916543679</v>
       </c>
       <c r="N7">
-        <v>6.5770621250187</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.50606636017098</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.818468377716328</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90169819738233</v>
+        <v>12.65499427009126</v>
       </c>
       <c r="C8">
-        <v>7.293210742530233</v>
+        <v>8.151950416277765</v>
       </c>
       <c r="D8">
-        <v>6.602424397098805</v>
+        <v>5.838327214776587</v>
       </c>
       <c r="E8">
-        <v>6.226632280625148</v>
+        <v>5.990263869805052</v>
       </c>
       <c r="F8">
-        <v>40.26161824859267</v>
+        <v>33.9295948130277</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.493310856324798</v>
+        <v>3.231949096735133</v>
       </c>
       <c r="I8">
-        <v>4.474868536918726</v>
+        <v>4.164380716210515</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>30.22142031491304</v>
+        <v>25.00995272864145</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>19.45787406657933</v>
       </c>
       <c r="M8">
-        <v>11.21316358804622</v>
+        <v>17.76722980496475</v>
       </c>
       <c r="N8">
-        <v>7.010844215230001</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.50794581800537</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.241528055990089</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.81802274088981</v>
+        <v>14.61633104546376</v>
       </c>
       <c r="C9">
-        <v>8.527393490776731</v>
+        <v>9.607006322734435</v>
       </c>
       <c r="D9">
-        <v>6.805282059387687</v>
+        <v>5.901969329704608</v>
       </c>
       <c r="E9">
-        <v>7.003079380696475</v>
+        <v>6.661085071864886</v>
       </c>
       <c r="F9">
-        <v>44.32767770724289</v>
+        <v>36.51410162858166</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.845249711554266</v>
+        <v>2.648855392371171</v>
       </c>
       <c r="I9">
-        <v>3.895023669385337</v>
+        <v>3.662049676302846</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>32.72297132304062</v>
+        <v>26.26690799562201</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>20.04495822787021</v>
       </c>
       <c r="M9">
-        <v>12.93931208699232</v>
+        <v>19.06697196965769</v>
       </c>
       <c r="N9">
-        <v>7.793842115177162</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.26056395633018</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.008247696423854</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14306080069858</v>
+        <v>15.89596552801673</v>
       </c>
       <c r="C10">
-        <v>9.419013363472713</v>
+        <v>10.62478452681979</v>
       </c>
       <c r="D10">
-        <v>6.871933582388587</v>
+        <v>5.922444013313803</v>
       </c>
       <c r="E10">
-        <v>7.370790046764751</v>
+        <v>6.973713828897804</v>
       </c>
       <c r="F10">
-        <v>46.58646837058615</v>
+        <v>37.92456212032219</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.428284114863197</v>
+        <v>2.276617329812189</v>
       </c>
       <c r="I10">
-        <v>3.509157822985398</v>
+        <v>3.330441437983664</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>34.02149597902795</v>
+        <v>26.84626303844198</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>20.19692622882284</v>
       </c>
       <c r="M10">
-        <v>14.09250103887384</v>
+        <v>19.81115459915069</v>
       </c>
       <c r="N10">
-        <v>8.18717822554458</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.42589532245516</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.391103501085999</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.59178085738814</v>
+        <v>16.36885887082684</v>
       </c>
       <c r="C11">
-        <v>10.16238049587714</v>
+        <v>11.29100440395632</v>
       </c>
       <c r="D11">
-        <v>6.453832496860429</v>
+        <v>5.866516180001273</v>
       </c>
       <c r="E11">
-        <v>6.325102128373364</v>
+        <v>6.049525817932532</v>
       </c>
       <c r="F11">
-        <v>43.48831964820838</v>
+        <v>35.57070163580074</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.233473859322699</v>
+        <v>3.121027614120627</v>
       </c>
       <c r="I11">
-        <v>3.447346125850249</v>
+        <v>3.273084083769125</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>31.34417508997055</v>
+        <v>24.8626204844875</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>18.58445432871757</v>
       </c>
       <c r="M11">
-        <v>14.63422706822085</v>
+        <v>18.44268894943795</v>
       </c>
       <c r="N11">
-        <v>7.183234451211912</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.94753970686525</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.3774069043196</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.70928082174196</v>
+        <v>16.51502638189734</v>
       </c>
       <c r="C12">
-        <v>10.59279981957258</v>
+        <v>11.62664942385382</v>
       </c>
       <c r="D12">
-        <v>6.211144783398637</v>
+        <v>5.899969774747163</v>
       </c>
       <c r="E12">
-        <v>5.633717788124994</v>
+        <v>5.490662650749333</v>
       </c>
       <c r="F12">
-        <v>40.53190212444981</v>
+        <v>33.38877362190512</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.493026579699431</v>
+        <v>4.407349457826965</v>
       </c>
       <c r="I12">
-        <v>3.4507114071147</v>
+        <v>3.268521085501736</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>28.95050643977372</v>
+        <v>23.18055355067469</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.29543015118744</v>
       </c>
       <c r="M12">
-        <v>14.85680629107386</v>
+        <v>17.19970809872148</v>
       </c>
       <c r="N12">
-        <v>6.287884760471783</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.15005404938143</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.476074472677914</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.57709686157449</v>
+        <v>16.41846816756928</v>
       </c>
       <c r="C13">
-        <v>10.84503167296127</v>
+        <v>11.75929652660371</v>
       </c>
       <c r="D13">
-        <v>6.078237849480312</v>
+        <v>5.989921999561592</v>
       </c>
       <c r="E13">
-        <v>5.241983406132362</v>
+        <v>5.238838121368572</v>
       </c>
       <c r="F13">
-        <v>37.29365602330062</v>
+        <v>31.04643502128019</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.861192045442968</v>
+        <v>5.787598424713957</v>
       </c>
       <c r="I13">
-        <v>3.51921171875268</v>
+        <v>3.321141886153054</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>26.48218172801135</v>
+        <v>21.5259096859826</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>16.08894481124941</v>
       </c>
       <c r="M13">
-        <v>14.85852280042084</v>
+        <v>15.90530891831053</v>
       </c>
       <c r="N13">
-        <v>5.425517923555724</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.12901531965906</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.610842966010143</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.36909119148746</v>
+        <v>16.23906437183365</v>
       </c>
       <c r="C14">
-        <v>10.95125074792242</v>
+        <v>11.76726093249433</v>
       </c>
       <c r="D14">
-        <v>6.052254809459994</v>
+        <v>6.084608799106169</v>
       </c>
       <c r="E14">
-        <v>5.190873906598178</v>
+        <v>5.27487987645545</v>
       </c>
       <c r="F14">
-        <v>34.84898082168514</v>
+        <v>29.29887469812755</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.849309885725939</v>
+        <v>6.779899183049173</v>
       </c>
       <c r="I14">
-        <v>3.598572338463973</v>
+        <v>3.386587572503204</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>24.70435252106801</v>
+        <v>20.37435909008709</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>15.2725040740178</v>
       </c>
       <c r="M14">
-        <v>14.76151174868846</v>
+        <v>14.97426685585219</v>
       </c>
       <c r="N14">
-        <v>4.859843248356022</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.01405996863864</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.044867239349951</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26234457783737</v>
+        <v>16.14114136688082</v>
       </c>
       <c r="C15">
-        <v>10.94538989339554</v>
+        <v>11.73140630421142</v>
       </c>
       <c r="D15">
-        <v>6.054583126418018</v>
+        <v>6.110392139493794</v>
       </c>
       <c r="E15">
-        <v>5.200231699410087</v>
+        <v>5.302912350403809</v>
       </c>
       <c r="F15">
-        <v>34.15487802756964</v>
+        <v>28.8101948235529</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.083739614208059</v>
+        <v>7.014062130490125</v>
       </c>
       <c r="I15">
-        <v>3.636963015394323</v>
+        <v>3.420341922992185</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>24.22638161795408</v>
+        <v>20.07811716345273</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15.06974445163833</v>
       </c>
       <c r="M15">
-        <v>14.69097652410452</v>
+        <v>14.72435289006302</v>
       </c>
       <c r="N15">
-        <v>4.725803859593134</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.9384025303155</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.911574446886632</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73744461541993</v>
+        <v>15.63038045023995</v>
       </c>
       <c r="C16">
-        <v>10.56669417640018</v>
+        <v>11.31154951055268</v>
       </c>
       <c r="D16">
-        <v>6.044724020487694</v>
+        <v>6.067334820822498</v>
       </c>
       <c r="E16">
-        <v>5.075266206517774</v>
+        <v>5.17921187642552</v>
       </c>
       <c r="F16">
-        <v>33.62742918841696</v>
+        <v>28.52624778954272</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.926595700115393</v>
+        <v>6.844437170289469</v>
       </c>
       <c r="I16">
-        <v>3.792458041251157</v>
+        <v>3.557177527767405</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>24.04543112182451</v>
+        <v>20.08857293268204</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>15.1465023453208</v>
       </c>
       <c r="M16">
-        <v>14.22401618759173</v>
+        <v>14.63810583492656</v>
       </c>
       <c r="N16">
-        <v>4.690570535339799</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.46805519540444</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.884737722889757</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44140213174674</v>
+        <v>15.3295181561108</v>
       </c>
       <c r="C17">
-        <v>10.20871834938846</v>
+        <v>10.97755963378636</v>
       </c>
       <c r="D17">
-        <v>6.039335778865099</v>
+        <v>5.980288986575364</v>
       </c>
       <c r="E17">
-        <v>4.959883421011002</v>
+        <v>5.022843316732311</v>
       </c>
       <c r="F17">
-        <v>34.55717816895091</v>
+        <v>29.2602984096619</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.259790295001309</v>
+        <v>6.163184700150423</v>
       </c>
       <c r="I17">
-        <v>3.87090699207481</v>
+        <v>3.628526725927975</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>24.85594504097557</v>
+        <v>20.70641210089404</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.64888279954381</v>
       </c>
       <c r="M17">
-        <v>13.91139823593773</v>
+        <v>15.05903742455721</v>
       </c>
       <c r="N17">
-        <v>4.957831103257189</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.16311925902669</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.157703799765882</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32098833606501</v>
+        <v>15.18658110815496</v>
       </c>
       <c r="C18">
-        <v>9.819499879524098</v>
+        <v>10.67186603530659</v>
       </c>
       <c r="D18">
-        <v>6.101241593460014</v>
+        <v>5.878298680961833</v>
       </c>
       <c r="E18">
-        <v>5.075591355032514</v>
+        <v>5.038557923192072</v>
       </c>
       <c r="F18">
-        <v>36.94285578999251</v>
+        <v>31.02547998631218</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.121705101257544</v>
+        <v>5.004522968156542</v>
       </c>
       <c r="I18">
-        <v>3.878074236752326</v>
+        <v>3.637218628310589</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>26.71590121392775</v>
+        <v>21.99868351503126</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.64824351249989</v>
       </c>
       <c r="M18">
-        <v>13.70143530745462</v>
+        <v>16.01179669232129</v>
       </c>
       <c r="N18">
-        <v>5.578284296496521</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.97141018888031</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.781439284376552</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34637953453922</v>
+        <v>15.17834418653044</v>
       </c>
       <c r="C19">
-        <v>9.474682572582553</v>
+        <v>10.44308146501648</v>
       </c>
       <c r="D19">
-        <v>6.294748997774898</v>
+        <v>5.830409379358058</v>
       </c>
       <c r="E19">
-        <v>5.671058591932471</v>
+        <v>5.493232882548791</v>
       </c>
       <c r="F19">
-        <v>40.1445989941529</v>
+        <v>33.35022040879493</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.8256096641623</v>
+        <v>3.679760701820471</v>
       </c>
       <c r="I19">
-        <v>3.838574296364777</v>
+        <v>3.610615694335193</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>29.19160758938553</v>
+        <v>23.68196290530311</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.93343214821483</v>
       </c>
       <c r="M19">
-        <v>13.60074765281324</v>
+        <v>17.27426942654222</v>
       </c>
       <c r="N19">
-        <v>6.493328437585019</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.89396503934257</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.698220587341347</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.79138138696188</v>
+        <v>15.55857268415423</v>
       </c>
       <c r="C20">
-        <v>9.23687188756832</v>
+        <v>10.40567419610259</v>
       </c>
       <c r="D20">
-        <v>6.815838283157995</v>
+        <v>5.906271191692125</v>
       </c>
       <c r="E20">
-        <v>7.250314971972815</v>
+        <v>6.872266761214411</v>
       </c>
       <c r="F20">
-        <v>45.68926237470924</v>
+        <v>37.31157915418379</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.541987854551653</v>
+        <v>2.377394508169085</v>
       </c>
       <c r="I20">
-        <v>3.639005497523327</v>
+        <v>3.449989308167241</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>33.43008206984513</v>
+        <v>26.50306112488986</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>20.01286780352631</v>
       </c>
       <c r="M20">
-        <v>13.80577684650544</v>
+        <v>19.46934782490283</v>
       </c>
       <c r="N20">
-        <v>8.081364540873569</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.1348580277551</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.287503962960654</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.78489725143109</v>
+        <v>16.50979556970598</v>
       </c>
       <c r="C21">
-        <v>9.83037459240558</v>
+        <v>11.11337435201154</v>
       </c>
       <c r="D21">
-        <v>6.959406044530716</v>
+        <v>5.944115258198774</v>
       </c>
       <c r="E21">
-        <v>7.767455415740734</v>
+        <v>7.324783159787383</v>
       </c>
       <c r="F21">
-        <v>48.1393385822106</v>
+        <v>38.93174274171981</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.175577558064055</v>
+        <v>2.048106723287641</v>
       </c>
       <c r="I21">
-        <v>3.327236556361501</v>
+        <v>3.183459733795341</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>35.01048403032581</v>
+        <v>27.36304861288156</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>20.44085414310209</v>
       </c>
       <c r="M21">
-        <v>14.64430266857128</v>
+        <v>20.36455136584013</v>
       </c>
       <c r="N21">
-        <v>8.586432345717121</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.98584894392744</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.785970331110738</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.40521252288143</v>
+        <v>17.1045801974555</v>
       </c>
       <c r="C22">
-        <v>10.21137919613036</v>
+        <v>11.55908968940751</v>
       </c>
       <c r="D22">
-        <v>7.035811912762685</v>
+        <v>5.963968512143741</v>
       </c>
       <c r="E22">
-        <v>8.024214856104878</v>
+        <v>7.546529757793125</v>
       </c>
       <c r="F22">
-        <v>49.57429629788223</v>
+        <v>39.88608447396594</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.954049533815039</v>
+        <v>1.850316570289086</v>
       </c>
       <c r="I22">
-        <v>3.120495214501342</v>
+        <v>3.003215624187295</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>35.92293169623842</v>
+        <v>27.85578523779034</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>20.66427547350442</v>
       </c>
       <c r="M22">
-        <v>15.17068186266622</v>
+        <v>20.90400339062848</v>
       </c>
       <c r="N22">
-        <v>8.835653597828628</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.51839097015787</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.030990058883319</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08138900825704</v>
+        <v>16.79349081994015</v>
       </c>
       <c r="C23">
-        <v>9.992927708287956</v>
+        <v>11.30793876301238</v>
       </c>
       <c r="D23">
-        <v>7.009381444711567</v>
+        <v>5.957427503932504</v>
       </c>
       <c r="E23">
-        <v>7.894503275450628</v>
+        <v>7.43386618180244</v>
       </c>
       <c r="F23">
-        <v>48.91918670539192</v>
+        <v>39.46349358429507</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.069836384236316</v>
+        <v>1.953858332037548</v>
       </c>
       <c r="I23">
-        <v>3.218570942852177</v>
+        <v>3.085492828596026</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>35.52631978736689</v>
+        <v>27.66092731631326</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>20.59613358360713</v>
       </c>
       <c r="M23">
-        <v>14.88896851058115</v>
+        <v>20.66751592541517</v>
       </c>
       <c r="N23">
-        <v>8.702708497324346</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.23389968698886</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.900415281531219</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.79331390100864</v>
+        <v>15.55583658281585</v>
       </c>
       <c r="C24">
-        <v>9.169598583813141</v>
+        <v>10.3508119587556</v>
       </c>
       <c r="D24">
-        <v>6.880915911014482</v>
+        <v>5.923157893228429</v>
       </c>
       <c r="E24">
-        <v>7.378122082556017</v>
+        <v>6.986654443806689</v>
       </c>
       <c r="F24">
-        <v>46.18856716511189</v>
+        <v>37.68729998434231</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.518842855756516</v>
+        <v>2.355743057256702</v>
       </c>
       <c r="I24">
-        <v>3.617097865746012</v>
+        <v>3.426965312019566</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>33.83676213433614</v>
+        <v>26.79626472746513</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>20.23869585559662</v>
       </c>
       <c r="M24">
-        <v>13.78368479480431</v>
+        <v>19.68651891514841</v>
       </c>
       <c r="N24">
-        <v>8.184070321348427</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.11551720834928</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.390969036509725</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.29855020016935</v>
+        <v>14.1056104034218</v>
       </c>
       <c r="C25">
-        <v>8.233415067485147</v>
+        <v>9.254160135123477</v>
       </c>
       <c r="D25">
-        <v>6.731030687664188</v>
+        <v>5.879271372744737</v>
       </c>
       <c r="E25">
-        <v>6.789406395174878</v>
+        <v>6.477333108676787</v>
       </c>
       <c r="F25">
-        <v>43.08384428293139</v>
+        <v>35.69180553947702</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.019666651775979</v>
+        <v>2.805313162417555</v>
       </c>
       <c r="I25">
-        <v>4.06358072468557</v>
+        <v>3.811822518791558</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>31.92206127369548</v>
+        <v>25.82674665710767</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.81233692931564</v>
       </c>
       <c r="M25">
-        <v>12.49865065005916</v>
+        <v>18.63170143377068</v>
       </c>
       <c r="N25">
-        <v>7.59053237838997</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.81262241671196</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.808634749054688</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
